--- a/data/nzd0317/nzd0317.xlsx
+++ b/data/nzd0317/nzd0317.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P474"/>
+  <dimension ref="A1:P484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23944,9 +23944,7 @@
           <t>2024-11-02 22:13:05+00:00</t>
         </is>
       </c>
-      <c r="B473" t="n">
-        <v>408.3766666666667</v>
-      </c>
+      <c r="B473" t="inlineStr"/>
       <c r="C473" t="n">
         <v>413.83</v>
       </c>
@@ -23998,9 +23996,7 @@
           <t>2024-11-17 22:19:14+00:00</t>
         </is>
       </c>
-      <c r="B474" t="n">
-        <v>401.5333333333333</v>
-      </c>
+      <c r="B474" t="inlineStr"/>
       <c r="C474" t="n">
         <v>412.43</v>
       </c>
@@ -24043,6 +24039,530 @@
       <c r="P474" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:13:06+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr"/>
+      <c r="C475" t="inlineStr"/>
+      <c r="D475" t="n">
+        <v>392.87</v>
+      </c>
+      <c r="E475" t="n">
+        <v>392.53</v>
+      </c>
+      <c r="F475" t="n">
+        <v>389.88</v>
+      </c>
+      <c r="G475" t="n">
+        <v>389.6</v>
+      </c>
+      <c r="H475" t="n">
+        <v>395.2377777777778</v>
+      </c>
+      <c r="I475" t="n">
+        <v>405.0477777777778</v>
+      </c>
+      <c r="J475" t="n">
+        <v>401.2977777777778</v>
+      </c>
+      <c r="K475" t="n">
+        <v>392</v>
+      </c>
+      <c r="L475" t="n">
+        <v>398.2442857142857</v>
+      </c>
+      <c r="M475" t="n">
+        <v>371.7066666666667</v>
+      </c>
+      <c r="N475" t="n">
+        <v>383.89</v>
+      </c>
+      <c r="O475" t="n">
+        <v>390.79</v>
+      </c>
+      <c r="P475" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr"/>
+      <c r="C476" t="n">
+        <v>414.25</v>
+      </c>
+      <c r="D476" t="n">
+        <v>398.16</v>
+      </c>
+      <c r="E476" t="n">
+        <v>394.13</v>
+      </c>
+      <c r="F476" t="n">
+        <v>395.7000000000001</v>
+      </c>
+      <c r="G476" t="n">
+        <v>397.14</v>
+      </c>
+      <c r="H476" t="n">
+        <v>396.1044444444445</v>
+      </c>
+      <c r="I476" t="n">
+        <v>400.8444444444444</v>
+      </c>
+      <c r="J476" t="n">
+        <v>393.5844444444445</v>
+      </c>
+      <c r="K476" t="n">
+        <v>377.8</v>
+      </c>
+      <c r="L476" t="n">
+        <v>362.7557142857143</v>
+      </c>
+      <c r="M476" t="n">
+        <v>369.2266666666667</v>
+      </c>
+      <c r="N476" t="n">
+        <v>377.58</v>
+      </c>
+      <c r="O476" t="n">
+        <v>386.5</v>
+      </c>
+      <c r="P476" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:19:13+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>469.25</v>
+      </c>
+      <c r="C477" t="n">
+        <v>457.18</v>
+      </c>
+      <c r="D477" t="n">
+        <v>388.16</v>
+      </c>
+      <c r="E477" t="n">
+        <v>390.83</v>
+      </c>
+      <c r="F477" t="n">
+        <v>388.74</v>
+      </c>
+      <c r="G477" t="n">
+        <v>385.75</v>
+      </c>
+      <c r="H477" t="n">
+        <v>393.71</v>
+      </c>
+      <c r="I477" t="n">
+        <v>402.59</v>
+      </c>
+      <c r="J477" t="n">
+        <v>399.69</v>
+      </c>
+      <c r="K477" t="n">
+        <v>406.54</v>
+      </c>
+      <c r="L477" t="n">
+        <v>402.2142857142857</v>
+      </c>
+      <c r="M477" t="n">
+        <v>360.98</v>
+      </c>
+      <c r="N477" t="n">
+        <v>363.5100000000001</v>
+      </c>
+      <c r="O477" t="n">
+        <v>381.87</v>
+      </c>
+      <c r="P477" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:13:13+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>445.6866666666667</v>
+      </c>
+      <c r="C478" t="n">
+        <v>459.5100000000001</v>
+      </c>
+      <c r="D478" t="n">
+        <v>388.9</v>
+      </c>
+      <c r="E478" t="n">
+        <v>390.31</v>
+      </c>
+      <c r="F478" t="n">
+        <v>389.16</v>
+      </c>
+      <c r="G478" t="n">
+        <v>385.14</v>
+      </c>
+      <c r="H478" t="n">
+        <v>395.4088888888889</v>
+      </c>
+      <c r="I478" t="n">
+        <v>400.6288888888889</v>
+      </c>
+      <c r="J478" t="n">
+        <v>402.0388888888889</v>
+      </c>
+      <c r="K478" t="n">
+        <v>408.49</v>
+      </c>
+      <c r="L478" t="n">
+        <v>416.23</v>
+      </c>
+      <c r="M478" t="n">
+        <v>370.5233333333334</v>
+      </c>
+      <c r="N478" t="n">
+        <v>368.97</v>
+      </c>
+      <c r="O478" t="n">
+        <v>386.07</v>
+      </c>
+      <c r="P478" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr"/>
+      <c r="C479" t="n">
+        <v>490.03</v>
+      </c>
+      <c r="D479" t="n">
+        <v>416.98</v>
+      </c>
+      <c r="E479" t="inlineStr"/>
+      <c r="F479" t="n">
+        <v>389.86</v>
+      </c>
+      <c r="G479" t="n">
+        <v>392.01</v>
+      </c>
+      <c r="H479" t="n">
+        <v>392.7</v>
+      </c>
+      <c r="I479" t="n">
+        <v>404.07</v>
+      </c>
+      <c r="J479" t="n">
+        <v>400.13</v>
+      </c>
+      <c r="K479" t="n">
+        <v>403.67</v>
+      </c>
+      <c r="L479" t="n">
+        <v>422.4971428571428</v>
+      </c>
+      <c r="M479" t="inlineStr"/>
+      <c r="N479" t="n">
+        <v>425.44</v>
+      </c>
+      <c r="O479" t="n">
+        <v>426.81</v>
+      </c>
+      <c r="P479" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:13:07+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>484.6466666666667</v>
+      </c>
+      <c r="C480" t="n">
+        <v>479.02</v>
+      </c>
+      <c r="D480" t="n">
+        <v>412.43</v>
+      </c>
+      <c r="E480" t="n">
+        <v>401.56</v>
+      </c>
+      <c r="F480" t="n">
+        <v>396.4</v>
+      </c>
+      <c r="G480" t="n">
+        <v>397.78</v>
+      </c>
+      <c r="H480" t="n">
+        <v>399.8288888888889</v>
+      </c>
+      <c r="I480" t="n">
+        <v>411.9188888888889</v>
+      </c>
+      <c r="J480" t="n">
+        <v>413.4688888888889</v>
+      </c>
+      <c r="K480" t="n">
+        <v>417.49</v>
+      </c>
+      <c r="L480" t="n">
+        <v>430.9357142857143</v>
+      </c>
+      <c r="M480" t="inlineStr"/>
+      <c r="N480" t="n">
+        <v>401.31</v>
+      </c>
+      <c r="O480" t="n">
+        <v>414.68</v>
+      </c>
+      <c r="P480" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:19:22+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>418.1466666666667</v>
+      </c>
+      <c r="C481" t="n">
+        <v>426.12</v>
+      </c>
+      <c r="D481" t="n">
+        <v>414.87</v>
+      </c>
+      <c r="E481" t="n">
+        <v>408.93</v>
+      </c>
+      <c r="F481" t="n">
+        <v>407.83</v>
+      </c>
+      <c r="G481" t="n">
+        <v>403.11</v>
+      </c>
+      <c r="H481" t="n">
+        <v>417.7522222222222</v>
+      </c>
+      <c r="I481" t="n">
+        <v>416.7322222222222</v>
+      </c>
+      <c r="J481" t="n">
+        <v>413.3022222222222</v>
+      </c>
+      <c r="K481" t="n">
+        <v>396.38</v>
+      </c>
+      <c r="L481" t="n">
+        <v>380.5828571428572</v>
+      </c>
+      <c r="M481" t="n">
+        <v>381.0833333333333</v>
+      </c>
+      <c r="N481" t="n">
+        <v>380.46</v>
+      </c>
+      <c r="O481" t="n">
+        <v>388.14</v>
+      </c>
+      <c r="P481" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:13:00+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>421.38</v>
+      </c>
+      <c r="C482" t="n">
+        <v>419.83</v>
+      </c>
+      <c r="D482" t="n">
+        <v>417.27</v>
+      </c>
+      <c r="E482" t="n">
+        <v>407.73</v>
+      </c>
+      <c r="F482" t="n">
+        <v>406.2</v>
+      </c>
+      <c r="G482" t="n">
+        <v>400.76</v>
+      </c>
+      <c r="H482" t="n">
+        <v>418.3633333333333</v>
+      </c>
+      <c r="I482" t="n">
+        <v>414.9933333333333</v>
+      </c>
+      <c r="J482" t="n">
+        <v>416.2533333333333</v>
+      </c>
+      <c r="K482" t="n">
+        <v>407.68</v>
+      </c>
+      <c r="L482" t="n">
+        <v>385.0085714285714</v>
+      </c>
+      <c r="M482" t="n">
+        <v>382.62</v>
+      </c>
+      <c r="N482" t="n">
+        <v>381.65</v>
+      </c>
+      <c r="O482" t="n">
+        <v>386.27</v>
+      </c>
+      <c r="P482" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:13:09+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>451.9</v>
+      </c>
+      <c r="C483" t="n">
+        <v>436.78</v>
+      </c>
+      <c r="D483" t="n">
+        <v>404.25</v>
+      </c>
+      <c r="E483" t="n">
+        <v>401.02</v>
+      </c>
+      <c r="F483" t="n">
+        <v>400.23</v>
+      </c>
+      <c r="G483" t="n">
+        <v>398.52</v>
+      </c>
+      <c r="H483" t="n">
+        <v>397.74</v>
+      </c>
+      <c r="I483" t="n">
+        <v>406.02</v>
+      </c>
+      <c r="J483" t="n">
+        <v>406.66</v>
+      </c>
+      <c r="K483" t="n">
+        <v>401.63</v>
+      </c>
+      <c r="L483" t="n">
+        <v>395.4128571428572</v>
+      </c>
+      <c r="M483" t="n">
+        <v>380.46</v>
+      </c>
+      <c r="N483" t="n">
+        <v>381.7600000000001</v>
+      </c>
+      <c r="O483" t="n">
+        <v>391.66</v>
+      </c>
+      <c r="P483" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr"/>
+      <c r="C484" t="n">
+        <v>420.95</v>
+      </c>
+      <c r="D484" t="n">
+        <v>405</v>
+      </c>
+      <c r="E484" t="n">
+        <v>399.24</v>
+      </c>
+      <c r="F484" t="n">
+        <v>399.78</v>
+      </c>
+      <c r="G484" t="n">
+        <v>402.17</v>
+      </c>
+      <c r="H484" t="n">
+        <v>401.3788888888889</v>
+      </c>
+      <c r="I484" t="n">
+        <v>407.1688888888889</v>
+      </c>
+      <c r="J484" t="n">
+        <v>401.7788888888889</v>
+      </c>
+      <c r="K484" t="n">
+        <v>392.84</v>
+      </c>
+      <c r="L484" t="n">
+        <v>376.0171428571429</v>
+      </c>
+      <c r="M484" t="n">
+        <v>379.4133333333333</v>
+      </c>
+      <c r="N484" t="n">
+        <v>383.5</v>
+      </c>
+      <c r="O484" t="n">
+        <v>389.29</v>
+      </c>
+      <c r="P484" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -24057,7 +24577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B500"/>
+  <dimension ref="A1:B510"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29065,6 +29585,106 @@
       </c>
       <c r="B500" t="n">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>-0.72</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>-0.77</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>-0.99</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>
@@ -29233,28 +29853,28 @@
         <v>0.0646</v>
       </c>
       <c r="I2" t="n">
-        <v>1.088610650048236</v>
+        <v>1.176616830499631</v>
       </c>
       <c r="J2" t="n">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="K2" t="n">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1230168162491563</v>
+        <v>0.1394620309415553</v>
       </c>
       <c r="M2" t="n">
-        <v>15.82433302374071</v>
+        <v>16.11157256640665</v>
       </c>
       <c r="N2" t="n">
-        <v>444.8294482528453</v>
+        <v>453.9423341989108</v>
       </c>
       <c r="O2" t="n">
-        <v>21.0909802582252</v>
+        <v>21.30592251461811</v>
       </c>
       <c r="P2" t="n">
-        <v>399.3285389184086</v>
+        <v>398.4240585998884</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -29310,28 +29930,28 @@
         <v>0.0536</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8471550088611229</v>
+        <v>1.022201570778779</v>
       </c>
       <c r="J3" t="n">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="K3" t="n">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09278831875310067</v>
+        <v>0.1184970529087198</v>
       </c>
       <c r="M3" t="n">
-        <v>14.43842516936925</v>
+        <v>15.24240318066827</v>
       </c>
       <c r="N3" t="n">
-        <v>347.1130075766764</v>
+        <v>391.4015500107453</v>
       </c>
       <c r="O3" t="n">
-        <v>18.63096904556165</v>
+        <v>19.78387095617906</v>
       </c>
       <c r="P3" t="n">
-        <v>382.6055339979142</v>
+        <v>380.7215063017043</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -29387,28 +30007,28 @@
         <v>0.0554</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1455520197553644</v>
+        <v>-0.0633035667327267</v>
       </c>
       <c r="J4" t="n">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="K4" t="n">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007321962999713105</v>
+        <v>0.001356126533981761</v>
       </c>
       <c r="M4" t="n">
-        <v>9.37703317230917</v>
+        <v>9.619940739019418</v>
       </c>
       <c r="N4" t="n">
-        <v>144.5771679587964</v>
+        <v>151.4347664082014</v>
       </c>
       <c r="O4" t="n">
-        <v>12.02402461569322</v>
+        <v>12.30588340624928</v>
       </c>
       <c r="P4" t="n">
-        <v>389.6631461951537</v>
+        <v>388.7894543904471</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -29464,28 +30084,28 @@
         <v>0.054</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4951626554193224</v>
+        <v>-0.4243474603214018</v>
       </c>
       <c r="J5" t="n">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="K5" t="n">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="L5" t="n">
-        <v>0.08941140416914484</v>
+        <v>0.06603053140805071</v>
       </c>
       <c r="M5" t="n">
-        <v>8.494900460580483</v>
+        <v>8.71396522481434</v>
       </c>
       <c r="N5" t="n">
-        <v>125.4372542143158</v>
+        <v>130.0624734478095</v>
       </c>
       <c r="O5" t="n">
-        <v>11.19987741961116</v>
+        <v>11.4044935638462</v>
       </c>
       <c r="P5" t="n">
-        <v>393.5145123986539</v>
+        <v>392.7585132105136</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -29541,28 +30161,28 @@
         <v>0.0523</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.6960418108807862</v>
+        <v>-0.614650984187128</v>
       </c>
       <c r="J6" t="n">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="K6" t="n">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1624716795112744</v>
+        <v>0.1282393153871799</v>
       </c>
       <c r="M6" t="n">
-        <v>8.836440600858452</v>
+        <v>9.050656931910169</v>
       </c>
       <c r="N6" t="n">
-        <v>124.0244368506779</v>
+        <v>129.8505217939079</v>
       </c>
       <c r="O6" t="n">
-        <v>11.13662591859302</v>
+        <v>11.39519731263605</v>
       </c>
       <c r="P6" t="n">
-        <v>395.5736777326537</v>
+        <v>394.6990021043242</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -29618,28 +30238,28 @@
         <v>0.0513</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.6613190812092266</v>
+        <v>-0.581415534676522</v>
       </c>
       <c r="J7" t="n">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="K7" t="n">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1474225192312938</v>
+        <v>0.1153740343504588</v>
       </c>
       <c r="M7" t="n">
-        <v>8.972540698397626</v>
+        <v>9.187504800648201</v>
       </c>
       <c r="N7" t="n">
-        <v>125.2363071155271</v>
+        <v>130.6303600019293</v>
       </c>
       <c r="O7" t="n">
-        <v>11.1909028731165</v>
+        <v>11.42936393689208</v>
       </c>
       <c r="P7" t="n">
-        <v>393.8564306011428</v>
+        <v>392.9947859002938</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -29695,28 +30315,28 @@
         <v>0.0461</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.6203357121080016</v>
+        <v>-0.5285472196135271</v>
       </c>
       <c r="J8" t="n">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="K8" t="n">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1205016595995679</v>
+        <v>0.08694568657231605</v>
       </c>
       <c r="M8" t="n">
-        <v>9.440422191925574</v>
+        <v>9.735448700563321</v>
       </c>
       <c r="N8" t="n">
-        <v>139.1786763549347</v>
+        <v>147.8822642865345</v>
       </c>
       <c r="O8" t="n">
-        <v>11.79740125429896</v>
+        <v>12.16068518984578</v>
       </c>
       <c r="P8" t="n">
-        <v>395.3073910072328</v>
+        <v>394.3167384197915</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -29772,28 +30392,28 @@
         <v>0.0454</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.7458475289675977</v>
+        <v>-0.6318109753841079</v>
       </c>
       <c r="J9" t="n">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="K9" t="n">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1664411792010835</v>
+        <v>0.1173360155986516</v>
       </c>
       <c r="M9" t="n">
-        <v>9.359055702828</v>
+        <v>9.790861014668533</v>
       </c>
       <c r="N9" t="n">
-        <v>137.7145302773934</v>
+        <v>150.9603716059839</v>
       </c>
       <c r="O9" t="n">
-        <v>11.73518343603513</v>
+        <v>12.28659316515298</v>
       </c>
       <c r="P9" t="n">
-        <v>399.1729931382953</v>
+        <v>397.9403804624174</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -29849,28 +30469,28 @@
         <v>0.0464</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.8004198190660796</v>
+        <v>-0.6821244151203901</v>
       </c>
       <c r="J10" t="n">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="K10" t="n">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1768581216835059</v>
+        <v>0.1263103987115981</v>
       </c>
       <c r="M10" t="n">
-        <v>9.573256093090173</v>
+        <v>9.977341686662875</v>
       </c>
       <c r="N10" t="n">
-        <v>146.9133200098927</v>
+        <v>161.3250273377367</v>
       </c>
       <c r="O10" t="n">
-        <v>12.12078050332951</v>
+        <v>12.70137895418197</v>
       </c>
       <c r="P10" t="n">
-        <v>397.6465720583134</v>
+        <v>396.3667821554755</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -29926,28 +30546,28 @@
         <v>0.0521</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.8902721636068741</v>
+        <v>-0.7688250367020899</v>
       </c>
       <c r="J11" t="n">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="K11" t="n">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1648338140839092</v>
+        <v>0.1220944377188362</v>
       </c>
       <c r="M11" t="n">
-        <v>10.92416401048924</v>
+        <v>11.34862229646859</v>
       </c>
       <c r="N11" t="n">
-        <v>200.8490094104175</v>
+        <v>216.4355136593722</v>
       </c>
       <c r="O11" t="n">
-        <v>14.17212085082602</v>
+        <v>14.71174747130239</v>
       </c>
       <c r="P11" t="n">
-        <v>394.6610527895537</v>
+        <v>393.3666776696722</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -30003,28 +30623,28 @@
         <v>0.0781</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.7415860499859175</v>
+        <v>-0.6191898644508589</v>
       </c>
       <c r="J12" t="n">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="K12" t="n">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1353449461627994</v>
+        <v>0.08927885498991772</v>
       </c>
       <c r="M12" t="n">
-        <v>9.773896480275111</v>
+        <v>10.25331743618173</v>
       </c>
       <c r="N12" t="n">
-        <v>173.679834085205</v>
+        <v>196.9360396119484</v>
       </c>
       <c r="O12" t="n">
-        <v>13.17876451285191</v>
+        <v>14.03339016816494</v>
       </c>
       <c r="P12" t="n">
-        <v>388.1398743476693</v>
+        <v>386.8248683706872</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -30080,28 +30700,28 @@
         <v>0.0823</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2599317474195681</v>
+        <v>-0.2649195690909116</v>
       </c>
       <c r="J13" t="n">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="K13" t="n">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02065615949325916</v>
+        <v>0.02203101536055863</v>
       </c>
       <c r="M13" t="n">
-        <v>9.433327976490592</v>
+        <v>9.376595735731703</v>
       </c>
       <c r="N13" t="n">
-        <v>159.6087144684575</v>
+        <v>157.5984104742193</v>
       </c>
       <c r="O13" t="n">
-        <v>12.63363425418266</v>
+        <v>12.55382055289223</v>
       </c>
       <c r="P13" t="n">
-        <v>382.5715096187253</v>
+        <v>382.624063638329</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -30157,28 +30777,28 @@
         <v>0.0531</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1761085357664617</v>
+        <v>-0.1649473272891435</v>
       </c>
       <c r="J14" t="n">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="K14" t="n">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="L14" t="n">
-        <v>0.007954484191429079</v>
+        <v>0.007037980875974736</v>
       </c>
       <c r="M14" t="n">
-        <v>10.44211399535503</v>
+        <v>10.44208749419421</v>
       </c>
       <c r="N14" t="n">
-        <v>196.3200420934199</v>
+        <v>198.235094357457</v>
       </c>
       <c r="O14" t="n">
-        <v>14.01142541262023</v>
+        <v>14.07959851549244</v>
       </c>
       <c r="P14" t="n">
-        <v>386.6464385479687</v>
+        <v>386.5278963917722</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -30234,28 +30854,28 @@
         <v>0.0436</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.07509674462815227</v>
+        <v>-0.05857330894387046</v>
       </c>
       <c r="J15" t="n">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="K15" t="n">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001279790534830516</v>
+        <v>0.0007933534560062849</v>
       </c>
       <c r="M15" t="n">
-        <v>11.61016106672218</v>
+        <v>11.54250165977081</v>
       </c>
       <c r="N15" t="n">
-        <v>218.7197656341849</v>
+        <v>218.341204463873</v>
       </c>
       <c r="O15" t="n">
-        <v>14.78917731431282</v>
+        <v>14.77637318369677</v>
       </c>
       <c r="P15" t="n">
-        <v>392.3720353301538</v>
+        <v>392.1930218498342</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -30292,7 +30912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P474"/>
+  <dimension ref="A1:P484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64982,11 +65602,7 @@
           <t>2024-11-02 22:13:05+00:00</t>
         </is>
       </c>
-      <c r="B473" t="inlineStr">
-        <is>
-          <t>-40.728047219671794,172.314910738189</t>
-        </is>
-      </c>
+      <c r="B473" t="inlineStr"/>
       <c r="C473" t="inlineStr">
         <is>
           <t>-40.72750410401912,172.31545686721364</t>
@@ -65064,11 +65680,7 @@
           <t>2024-11-17 22:19:14+00:00</t>
         </is>
       </c>
-      <c r="B474" t="inlineStr">
-        <is>
-          <t>-40.728088216083265,172.31497125666522</t>
-        </is>
-      </c>
+      <c r="B474" t="inlineStr"/>
       <c r="C474" t="inlineStr">
         <is>
           <t>-40.72751249097617,172.31546924794134</t>
@@ -65137,6 +65749,794 @@
       <c r="P474" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:13:06+00:00</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr"/>
+      <c r="C475" t="inlineStr"/>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>-40.72711921776605,172.31623657916415</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>-40.726610799814026,172.3168339403474</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>-40.72612225684889,172.31744491403182</t>
+        </is>
+      </c>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>-40.725599874737455,172.3180030695314</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>-40.725036361786515,172.318510892564</t>
+        </is>
+      </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>-40.72444880197545,172.3189807304488</t>
+        </is>
+      </c>
+      <c r="J475" t="inlineStr">
+        <is>
+          <t>-40.72394043027224,172.31957294121526</t>
+        </is>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>-40.72345633912263,172.32020697546625</t>
+        </is>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>-40.72288335352726,172.3206984872305</t>
+        </is>
+      </c>
+      <c r="M475" t="inlineStr">
+        <is>
+          <t>-40.72249212083558,172.32149592071895</t>
+        </is>
+      </c>
+      <c r="N475" t="inlineStr">
+        <is>
+          <t>-40.72187398382514,172.32194504658779</t>
+        </is>
+      </c>
+      <c r="O475" t="inlineStr">
+        <is>
+          <t>-40.72133329079289,172.32251758873593</t>
+        </is>
+      </c>
+      <c r="P475" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:19:21+00:00</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr"/>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>-40.72750158793176,172.31545315299596</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>-40.72708752727016,172.3161897977158</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>-40.726601214837004,172.31681979099295</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>-40.726088301325916,172.31739240563726</t>
+        </is>
+      </c>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>-40.72555717821336,172.31793363383971</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>-40.72503146474876,172.31850290026307</t>
+        </is>
+      </c>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>-40.72447255250721,172.31901949288923</t>
+        </is>
+      </c>
+      <c r="J476" t="inlineStr">
+        <is>
+          <t>-40.72398361677238,172.319644488846</t>
+        </is>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>-40.723535097224,172.32033946439836</t>
+        </is>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>-40.723080154786565,172.32102963186793</t>
+        </is>
+      </c>
+      <c r="M476" t="inlineStr">
+        <is>
+          <t>-40.72250587354158,172.32151906158367</t>
+        </is>
+      </c>
+      <c r="N476" t="inlineStr">
+        <is>
+          <t>-40.721911329962715,172.32200137064945</t>
+        </is>
+      </c>
+      <c r="O476" t="inlineStr">
+        <is>
+          <t>-40.72136022359703,172.32255401604823</t>
+        </is>
+      </c>
+      <c r="P476" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:19:13+00:00</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>-40.727682543926214,172.31437241296135</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>-40.72724440723402,172.31507350836537</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>-40.72714743367379,172.31627823149296</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>-40.72662098385022,172.31684897404102</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>-40.72612890792794,172.31745519918752</t>
+        </is>
+      </c>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>-40.725621675997075,172.31803852412975</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>-40.7250449943838,172.31852498155885</t>
+        </is>
+      </c>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>-40.72446268941456,172.31900339566306</t>
+        </is>
+      </c>
+      <c r="J477" t="inlineStr">
+        <is>
+          <t>-40.723949432129196,172.31958785469385</t>
+        </is>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>-40.7233756951078,172.32007131458843</t>
+        </is>
+      </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>-40.72286133790235,172.3206614431952</t>
+        </is>
+      </c>
+      <c r="M477" t="inlineStr">
+        <is>
+          <t>-40.72255160495296,172.3215960112482</t>
+        </is>
+      </c>
+      <c r="N477" t="inlineStr">
+        <is>
+          <t>-40.72199460405738,172.32212696193005</t>
+        </is>
+      </c>
+      <c r="O477" t="inlineStr">
+        <is>
+          <t>-40.721389290922986,172.32259333040656</t>
+        </is>
+      </c>
+      <c r="P477" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:13:13+00:00</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>-40.727823705805086,172.31458079146785</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>-40.72723044887052,172.3150529034645</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>-40.727143000602226,172.31627168738802</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>-40.72662409896678,172.31685357258348</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>-40.72612645753049,172.31745140991936</t>
+        </is>
+      </c>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>-40.72562513022162,172.31804414161368</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>-40.72503539493552,172.3185093145968</t>
+        </is>
+      </c>
+      <c r="I478" t="inlineStr">
+        <is>
+          <t>-40.72447377048285,172.31902148070742</t>
+        </is>
+      </c>
+      <c r="J478" t="inlineStr">
+        <is>
+          <t>-40.723936280832355,172.31956606679347</t>
+        </is>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>-40.72336487970177,172.3200531207543</t>
+        </is>
+      </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>-40.72278361370027,172.32053066288336</t>
+        </is>
+      </c>
+      <c r="M478" t="inlineStr">
+        <is>
+          <t>-40.722498682947226,172.3215069623938</t>
+        </is>
+      </c>
+      <c r="N478" t="inlineStr">
+        <is>
+          <t>-40.721962288753126,172.32207822497796</t>
+        </is>
+      </c>
+      <c r="O478" t="inlineStr">
+        <is>
+          <t>-40.721362923154864,172.3225576672723</t>
+        </is>
+      </c>
+      <c r="P478" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-05 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr"/>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>-40.72704761194458,172.31478300658912</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>-40.726974783236564,172.31602336577782</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr"/>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>-40.726122373534494,172.3174450944731</t>
+        </is>
+      </c>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>-40.72558622770971,172.31798087588552</t>
+        </is>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>-40.725050701314466,172.3185342956673</t>
+        </is>
+      </c>
+      <c r="I479" t="inlineStr">
+        <is>
+          <t>-40.72445432681613,172.31898974735026</t>
+        </is>
+      </c>
+      <c r="J479" t="inlineStr">
+        <is>
+          <t>-40.723946968594234,172.3195837733268</t>
+        </is>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>-40.72339161316175,172.320098092191</t>
+        </is>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>-40.7227488591859,172.3204721844143</t>
+        </is>
+      </c>
+      <c r="M479" t="inlineStr"/>
+      <c r="N479" t="inlineStr">
+        <is>
+          <t>-40.72162806681933,172.32157416626663</t>
+        </is>
+      </c>
+      <c r="O479" t="inlineStr">
+        <is>
+          <t>-40.72110715523762,172.32221173633087</t>
+        </is>
+      </c>
+      <c r="P479" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-06 22:13:07+00:00</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>-40.727590306248864,172.31423625551977</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>-40.72711356989851,172.31488037092046</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>-40.727002040715995,172.31606360299074</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>-40.72655670457748,172.31675408498134</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>-40.72608421732672,172.31738609019823</t>
+        </is>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>-40.72555355410331,172.31792774009813</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>-40.72501042003665,172.31846855387556</t>
+        </is>
+      </c>
+      <c r="I480" t="inlineStr">
+        <is>
+          <t>-40.724409977393485,172.3189173662652</t>
+        </is>
+      </c>
+      <c r="J480" t="inlineStr">
+        <is>
+          <t>-40.72387228484689,172.31946004414837</t>
+        </is>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>-40.72331496240638,172.31996914928857</t>
+        </is>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>-40.722702062942496,172.32039344452514</t>
+        </is>
+      </c>
+      <c r="M480" t="inlineStr"/>
+      <c r="N480" t="inlineStr">
+        <is>
+          <t>-40.72177088230239,172.3217895532298</t>
+        </is>
+      </c>
+      <c r="O480" t="inlineStr">
+        <is>
+          <t>-40.721183308139196,172.32231473414717</t>
+        </is>
+      </c>
+      <c r="P480" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:19:22+00:00</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>-40.72798869040057,172.31482433809688</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>-40.72743047846117,172.31534818224515</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>-40.72698742351996,172.31604202522854</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>-40.72651255371816,172.31668890965676</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>-40.7260175314056,172.3172829682102</t>
+        </is>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>-40.72552337205018,172.3178786563061</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>-40.72490914535719,172.31830326731233</t>
+        </is>
+      </c>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>-40.72438278007527,172.31887297859197</t>
+        </is>
+      </c>
+      <c r="J481" t="inlineStr">
+        <is>
+          <t>-40.723873218005735,172.3194615901172</t>
+        </is>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>-40.7234320461004,172.32016610922503</t>
+        </is>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>-40.7229812947917,172.32086328616293</t>
+        </is>
+      </c>
+      <c r="M481" t="inlineStr">
+        <is>
+          <t>-40.72244012299568,172.3214084271864</t>
+        </is>
+      </c>
+      <c r="N481" t="inlineStr">
+        <is>
+          <t>-40.72189428450234,172.32197566330444</t>
+        </is>
+      </c>
+      <c r="O481" t="inlineStr">
+        <is>
+          <t>-40.72134992760799,172.32254009045218</t>
+        </is>
+      </c>
+      <c r="P481" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-14 22:13:00+00:00</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>-40.72796932041269,172.31479574444575</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>-40.7274681599026,172.31540380698752</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>-40.726973045946195,172.3160208012093</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>-40.726519742463005,172.316699521644</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>-40.726027041301954,172.3172976741329</t>
+        </is>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>-40.72553667933695,172.31790029737215</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>-40.72490569230775,172.31829763173693</t>
+        </is>
+      </c>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>-40.724392605516506,172.31888901430077</t>
+        </is>
+      </c>
+      <c r="J482" t="inlineStr">
+        <is>
+          <t>-40.72385669487025,172.31943421616825</t>
+        </is>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>-40.72336937225539,172.32006067819236</t>
+        </is>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>-40.72295675206205,172.32082198974175</t>
+        </is>
+      </c>
+      <c r="M482" t="inlineStr">
+        <is>
+          <t>-40.72243160148062,172.3213940885864</t>
+        </is>
+      </c>
+      <c r="N482" t="inlineStr">
+        <is>
+          <t>-40.72188724141116,172.32196504117616</t>
+        </is>
+      </c>
+      <c r="O482" t="inlineStr">
+        <is>
+          <t>-40.721361667546574,172.32255596902849</t>
+        </is>
+      </c>
+      <c r="P482" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-22 22:13:09+00:00</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>-40.72778648335686,172.31452584477933</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>-40.72736661764291,172.31525391215752</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>-40.72705104423748,172.3161359416233</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>-40.7265599395101,172.31675886038167</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>-40.72606187201073,172.31735153573834</t>
+        </is>
+      </c>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>-40.72554936372568,172.3179209254602</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>-40.72502222315806,172.31848781735994</t>
+        </is>
+      </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>-40.72444330852521,172.31897176478122</t>
+        </is>
+      </c>
+      <c r="J483" t="inlineStr">
+        <is>
+          <t>-40.723910407479195,172.319523202165</t>
+        </is>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>-40.72340292773294,172.32011712575598</t>
+        </is>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>-40.72289905519999,172.32072490728075</t>
+        </is>
+      </c>
+      <c r="M483" t="inlineStr">
+        <is>
+          <t>-40.72244357966179,172.32141424349595</t>
+        </is>
+      </c>
+      <c r="N483" t="inlineStr">
+        <is>
+          <t>-40.721886590369074,172.32196405929884</t>
+        </is>
+      </c>
+      <c r="O483" t="inlineStr">
+        <is>
+          <t>-40.72132782889417,172.32251020138247</t>
+        </is>
+      </c>
+      <c r="P483" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-01 22:19:15+00:00</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr"/>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>-40.72746145033151,172.3153939024183</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>-40.72704655125144,172.31612930910367</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>-40.72657060280516,172.3167746015193</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>-40.726064497440035,172.31735559566062</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>-40.72552869496537,172.3178873127315</t>
+        </is>
+      </c>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>-40.72500166186739,172.31845425996474</t>
+        </is>
+      </c>
+      <c r="I484" t="inlineStr">
+        <is>
+          <t>-40.72443681683569,172.31896116992564</t>
+        </is>
+      </c>
+      <c r="J484" t="inlineStr">
+        <is>
+          <t>-40.72393773655794,172.31956847850955</t>
+        </is>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>-40.72345168018797,172.3201991381026</t>
+        </is>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>-40.72300661387383,172.32090588895852</t>
+        </is>
+      </c>
+      <c r="M484" t="inlineStr">
+        <is>
+          <t>-40.72244938390265,172.32142400992078</t>
+        </is>
+      </c>
+      <c r="N484" t="inlineStr">
+        <is>
+          <t>-40.72187629206582,172.32194852778784</t>
+        </is>
+      </c>
+      <c r="O484" t="inlineStr">
+        <is>
+          <t>-40.721342707858575,172.32253032555505</t>
+        </is>
+      </c>
+      <c r="P484" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0317/nzd0317.xlsx
+++ b/data/nzd0317/nzd0317.xlsx
@@ -29698,7 +29698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29789,35 +29789,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -29876,27 +29881,28 @@
       <c r="P2" t="n">
         <v>398.4240585998884</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (172.31852231510467 -40.7304936299993, 172.3105374155522 -40.7250844279453)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>172.3185223151047</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-40.7304936299993</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>172.3105374155522</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-40.7250844279453</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>172.3145298653284</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-40.7277890289723</v>
       </c>
     </row>
@@ -29953,27 +29959,28 @@
       <c r="P3" t="n">
         <v>380.7215063017043</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (172.31911665740793 -40.72998317134682, 172.31113176542328 -40.724573982465216)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>172.3191166574079</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-40.72998317134682</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>172.3111317654233</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-40.72457398246522</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>172.3151242114156</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-40.72727857690602</v>
       </c>
     </row>
@@ -30030,27 +30037,28 @@
       <c r="P4" t="n">
         <v>388.7894543904471</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (172.31971099971082 -40.72947270877881, 172.31172611529502 -40.72406353306956)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>172.3197109997108</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-40.72947270877881</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>172.311726115295</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-40.72406353306956</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>172.3157185575029</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-40.72676812092418</v>
       </c>
     </row>
@@ -30107,27 +30115,28 @@
       <c r="P5" t="n">
         <v>392.7585132105136</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (172.3203053420133 -40.72896224229532, 172.31232046516743 -40.7235530797582)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>172.3203053420133</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-40.72896224229532</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>172.3123204651674</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-40.7235530797582</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>172.3163129035904</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-40.72625766102676</v>
       </c>
     </row>
@@ -30184,27 +30193,28 @@
       <c r="P6" t="n">
         <v>394.6990021043242</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (172.32096255691525 -40.72839687294835, 172.3128160520023 -40.723128694014385)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>172.3209625569152</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-40.72839687294835</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>172.3128160520023</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-40.72312869401438</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>172.3168893044588</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-40.72576278348137</v>
       </c>
     </row>
@@ -30261,27 +30271,28 @@
       <c r="P7" t="n">
         <v>392.9947859002938</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (172.32159100828727 -40.72780599426445, 172.31327543911078 -40.722692600144676)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>172.3215910082873</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-40.72780599426445</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>172.3132754391108</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-40.72269260014468</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>172.317433223699</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-40.72524929720456</v>
       </c>
     </row>
@@ -30338,27 +30349,28 @@
       <c r="P8" t="n">
         <v>394.3167384197915</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (172.3221558525592 -40.72726956733222, 172.31382858375216 -40.72216720318071)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>172.3221558525592</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-40.72726956733222</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>172.3138285837522</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-40.72216720318071</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>172.3179922181557</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-40.72471838525647</v>
       </c>
     </row>
@@ -30415,27 +30427,28 @@
       <c r="P9" t="n">
         <v>397.9403804624174</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (172.3227161405708 -40.72673742633425, 172.31438888642768 -40.72163507520168)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>172.3227161405708</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-40.72673742633425</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>172.3143888864277</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-40.72163507520168</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>172.3185525134992</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-40.72418625076797</v>
       </c>
     </row>
@@ -30492,27 +30505,28 @@
       <c r="P10" t="n">
         <v>396.3667821554755</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (172.32329543749475 -40.726187214631125, 172.31491932523315 -40.72113127031279)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>172.3232954374947</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-40.72618721463112</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>172.3149193252331</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-40.72113127031279</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>172.3191073813639</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-40.72365924247195</v>
       </c>
     </row>
@@ -30569,27 +30583,28 @@
       <c r="P11" t="n">
         <v>393.3666776696722</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (172.32386453142362 -40.72563045109802, 172.31543923978035 -40.7206219324811)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>172.3238645314236</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-40.72563045109802</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>172.3154392397803</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-40.7206219324811</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>172.319651885602</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-40.72312619178956</v>
       </c>
     </row>
@@ -30646,27 +30661,28 @@
       <c r="P12" t="n">
         <v>386.8248683706872</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (172.3244146255687 -40.725091756345556, 172.31598857986117 -40.72008399937065)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>172.3244146255687</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-40.72509175634556</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>172.3159885798612</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-40.72008399937065</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>172.3202016027149</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-40.7225878778581</v>
       </c>
     </row>
@@ -30723,27 +30739,28 @@
       <c r="P13" t="n">
         <v>382.624063638329</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (172.3249644199072 -40.72455334878713, 172.3165383909694 -40.71954560475911)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>172.3249644199072</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-40.72455334878713</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>172.3165383909694</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-40.71954560475911</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>172.3207514054383</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-40.72204947677312</v>
       </c>
     </row>
@@ -30800,27 +30817,28 @@
       <c r="P14" t="n">
         <v>386.5278963917722</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (172.32537182444997 -40.72414601172459, 172.31731188880414 -40.71880169361124)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>172.32537182445</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-40.72414601172459</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>172.3173118888041</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-40.71880169361124</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>172.321341856627</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-40.72147385266791</v>
       </c>
     </row>
@@ -30877,27 +30895,28 @@
       <c r="P15" t="n">
         <v>392.1930218498342</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (172.32583599118982 -40.72378664045306, 172.31816930345315 -40.718118115890945)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>172.3258359911898</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-40.72378664045306</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>172.3181693034531</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-40.71811811589095</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>172.3220026473215</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-40.720952378172</v>
       </c>
     </row>

--- a/data/nzd0317/nzd0317.xlsx
+++ b/data/nzd0317/nzd0317.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P484"/>
+  <dimension ref="A1:P487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24520,7 +24520,9 @@
           <t>2025-03-01 22:19:15+00:00</t>
         </is>
       </c>
-      <c r="B484" t="inlineStr"/>
+      <c r="B484" t="n">
+        <v>397.5366666666667</v>
+      </c>
       <c r="C484" t="n">
         <v>420.95</v>
       </c>
@@ -24563,6 +24565,168 @@
       <c r="P484" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:19:02+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>412.2033333333333</v>
+      </c>
+      <c r="C485" t="n">
+        <v>426.39</v>
+      </c>
+      <c r="D485" t="n">
+        <v>406.73</v>
+      </c>
+      <c r="E485" t="n">
+        <v>402.11</v>
+      </c>
+      <c r="F485" t="n">
+        <v>402.41</v>
+      </c>
+      <c r="G485" t="n">
+        <v>400.37</v>
+      </c>
+      <c r="H485" t="n">
+        <v>403.1644444444445</v>
+      </c>
+      <c r="I485" t="n">
+        <v>403.2844444444444</v>
+      </c>
+      <c r="J485" t="n">
+        <v>407.4344444444445</v>
+      </c>
+      <c r="K485" t="n">
+        <v>412.02</v>
+      </c>
+      <c r="L485" t="n">
+        <v>393.5371428571429</v>
+      </c>
+      <c r="M485" t="n">
+        <v>381.5966666666667</v>
+      </c>
+      <c r="N485" t="n">
+        <v>383.49</v>
+      </c>
+      <c r="O485" t="n">
+        <v>377.16</v>
+      </c>
+      <c r="P485" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:18:51+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>412.79</v>
+      </c>
+      <c r="C486" t="n">
+        <v>421.65</v>
+      </c>
+      <c r="D486" t="n">
+        <v>406.49</v>
+      </c>
+      <c r="E486" t="n">
+        <v>401.41</v>
+      </c>
+      <c r="F486" t="n">
+        <v>399.91</v>
+      </c>
+      <c r="G486" t="n">
+        <v>398.35</v>
+      </c>
+      <c r="H486" t="n">
+        <v>405.4033333333333</v>
+      </c>
+      <c r="I486" t="n">
+        <v>403.6633333333333</v>
+      </c>
+      <c r="J486" t="n">
+        <v>404.6733333333333</v>
+      </c>
+      <c r="K486" t="n">
+        <v>400.63</v>
+      </c>
+      <c r="L486" t="n">
+        <v>397.8485714285715</v>
+      </c>
+      <c r="M486" t="n">
+        <v>387.35</v>
+      </c>
+      <c r="N486" t="n">
+        <v>388.2</v>
+      </c>
+      <c r="O486" t="n">
+        <v>378.36</v>
+      </c>
+      <c r="P486" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:18:46+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>412.2066666666667</v>
+      </c>
+      <c r="C487" t="n">
+        <v>417.87</v>
+      </c>
+      <c r="D487" t="n">
+        <v>404.46</v>
+      </c>
+      <c r="E487" t="n">
+        <v>402.11</v>
+      </c>
+      <c r="F487" t="n">
+        <v>400.85</v>
+      </c>
+      <c r="G487" t="n">
+        <v>401.99</v>
+      </c>
+      <c r="H487" t="n">
+        <v>409.9255555555556</v>
+      </c>
+      <c r="I487" t="n">
+        <v>411.1355555555555</v>
+      </c>
+      <c r="J487" t="n">
+        <v>404.4655555555556</v>
+      </c>
+      <c r="K487" t="n">
+        <v>392.88</v>
+      </c>
+      <c r="L487" t="n">
+        <v>383.9685714285715</v>
+      </c>
+      <c r="M487" t="n">
+        <v>384.1933333333333</v>
+      </c>
+      <c r="N487" t="n">
+        <v>392.38</v>
+      </c>
+      <c r="O487" t="n">
+        <v>395.39</v>
+      </c>
+      <c r="P487" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -24577,7 +24741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B510"/>
+  <dimension ref="A1:B513"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29685,6 +29849,36 @@
       </c>
       <c r="B510" t="n">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>
@@ -29858,28 +30052,28 @@
         <v>0.0646</v>
       </c>
       <c r="I2" t="n">
-        <v>1.176616830499631</v>
+        <v>1.136676882412116</v>
       </c>
       <c r="J2" t="n">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K2" t="n">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1394620309415553</v>
+        <v>0.1324350239941702</v>
       </c>
       <c r="M2" t="n">
-        <v>16.11157256640665</v>
+        <v>16.08263113377345</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9423341989108</v>
+        <v>453.580123268674</v>
       </c>
       <c r="O2" t="n">
-        <v>21.30592251461811</v>
+        <v>21.29742057782289</v>
       </c>
       <c r="P2" t="n">
-        <v>398.4240585998884</v>
+        <v>398.8385620211544</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -29936,28 +30130,28 @@
         <v>0.0536</v>
       </c>
       <c r="I3" t="n">
-        <v>1.022201570778779</v>
+        <v>1.043695711099093</v>
       </c>
       <c r="J3" t="n">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K3" t="n">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1184970529087198</v>
+        <v>0.123856140386826</v>
       </c>
       <c r="M3" t="n">
-        <v>15.24240318066827</v>
+        <v>15.26708581366521</v>
       </c>
       <c r="N3" t="n">
-        <v>391.4015500107453</v>
+        <v>390.1911108054474</v>
       </c>
       <c r="O3" t="n">
-        <v>19.78387095617906</v>
+        <v>19.75325570141407</v>
       </c>
       <c r="P3" t="n">
-        <v>380.7215063017043</v>
+        <v>380.4885666422615</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30014,28 +30208,28 @@
         <v>0.0554</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0633035667327267</v>
+        <v>-0.03773934471123026</v>
       </c>
       <c r="J4" t="n">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K4" t="n">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001356126533981761</v>
+        <v>0.0004804659919969145</v>
       </c>
       <c r="M4" t="n">
-        <v>9.619940739019418</v>
+        <v>9.702561256370501</v>
       </c>
       <c r="N4" t="n">
-        <v>151.4347664082014</v>
+        <v>152.8824877318572</v>
       </c>
       <c r="O4" t="n">
-        <v>12.30588340624928</v>
+        <v>12.36456581250863</v>
       </c>
       <c r="P4" t="n">
-        <v>388.7894543904471</v>
+        <v>388.5161374003157</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30092,28 +30286,28 @@
         <v>0.054</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4243474603214018</v>
+        <v>-0.397669045267795</v>
       </c>
       <c r="J5" t="n">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K5" t="n">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06603053140805071</v>
+        <v>0.05794361878395204</v>
       </c>
       <c r="M5" t="n">
-        <v>8.71396522481434</v>
+        <v>8.81348562227206</v>
       </c>
       <c r="N5" t="n">
-        <v>130.0624734478095</v>
+        <v>131.9820274645104</v>
       </c>
       <c r="O5" t="n">
-        <v>11.4044935638462</v>
+        <v>11.48834311223818</v>
       </c>
       <c r="P5" t="n">
-        <v>392.7585132105136</v>
+        <v>392.4717266979744</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30170,28 +30364,28 @@
         <v>0.0523</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.614650984187128</v>
+        <v>-0.5857003805924197</v>
       </c>
       <c r="J6" t="n">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K6" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1282393153871799</v>
+        <v>0.1163874296617888</v>
       </c>
       <c r="M6" t="n">
-        <v>9.050656931910169</v>
+        <v>9.145666978594543</v>
       </c>
       <c r="N6" t="n">
-        <v>129.8505217939079</v>
+        <v>132.3573853207726</v>
       </c>
       <c r="O6" t="n">
-        <v>11.39519731263605</v>
+        <v>11.50466797959735</v>
       </c>
       <c r="P6" t="n">
-        <v>394.6990021043242</v>
+        <v>394.3857392086884</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30248,28 +30442,28 @@
         <v>0.0513</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.581415534676522</v>
+        <v>-0.5523983227236416</v>
       </c>
       <c r="J7" t="n">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K7" t="n">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1153740343504588</v>
+        <v>0.1040070973009196</v>
       </c>
       <c r="M7" t="n">
-        <v>9.187504800648201</v>
+        <v>9.277968769448179</v>
       </c>
       <c r="N7" t="n">
-        <v>130.6303600019293</v>
+        <v>133.1570645253862</v>
       </c>
       <c r="O7" t="n">
-        <v>11.42936393689208</v>
+        <v>11.53937019621895</v>
       </c>
       <c r="P7" t="n">
-        <v>392.9947859002938</v>
+        <v>392.6796806358028</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30326,28 +30520,28 @@
         <v>0.0461</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.5285472196135271</v>
+        <v>-0.4958990786314811</v>
       </c>
       <c r="J8" t="n">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K8" t="n">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="L8" t="n">
-        <v>0.08694568657231605</v>
+        <v>0.07604279183069762</v>
       </c>
       <c r="M8" t="n">
-        <v>9.735448700563321</v>
+        <v>9.855878655269793</v>
       </c>
       <c r="N8" t="n">
-        <v>147.8822642865345</v>
+        <v>151.3596608941803</v>
       </c>
       <c r="O8" t="n">
-        <v>12.16068518984578</v>
+        <v>12.30283141777454</v>
       </c>
       <c r="P8" t="n">
-        <v>394.3167384197915</v>
+        <v>393.961789864187</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30404,28 +30598,28 @@
         <v>0.0454</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.6318109753841079</v>
+        <v>-0.6009785802332575</v>
       </c>
       <c r="J9" t="n">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K9" t="n">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1173360155986516</v>
+        <v>0.1059098561670198</v>
       </c>
       <c r="M9" t="n">
-        <v>9.790861014668533</v>
+        <v>9.905348926777055</v>
       </c>
       <c r="N9" t="n">
-        <v>150.9603716059839</v>
+        <v>154.0251155663782</v>
       </c>
       <c r="O9" t="n">
-        <v>12.28659316515298</v>
+        <v>12.41068553974269</v>
       </c>
       <c r="P9" t="n">
-        <v>397.9403804624174</v>
+        <v>397.6045832728124</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30482,28 +30676,28 @@
         <v>0.0464</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.6821244151203901</v>
+        <v>-0.6480007988729478</v>
       </c>
       <c r="J10" t="n">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K10" t="n">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1263103987115981</v>
+        <v>0.1135827881080564</v>
       </c>
       <c r="M10" t="n">
-        <v>9.977341686662875</v>
+        <v>10.09751679831576</v>
       </c>
       <c r="N10" t="n">
-        <v>161.3250273377367</v>
+        <v>165.075089367834</v>
       </c>
       <c r="O10" t="n">
-        <v>12.70137895418197</v>
+        <v>12.84815509588182</v>
       </c>
       <c r="P10" t="n">
-        <v>396.3667821554755</v>
+        <v>395.9949798930638</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30560,28 +30754,28 @@
         <v>0.0521</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.7688250367020899</v>
+        <v>-0.7329831510189526</v>
       </c>
       <c r="J11" t="n">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K11" t="n">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1220944377188362</v>
+        <v>0.1107782254121138</v>
       </c>
       <c r="M11" t="n">
-        <v>11.34862229646859</v>
+        <v>11.48037823450065</v>
       </c>
       <c r="N11" t="n">
-        <v>216.4355136593722</v>
+        <v>220.7548699239819</v>
       </c>
       <c r="O11" t="n">
-        <v>14.71174747130239</v>
+        <v>14.85782184319027</v>
       </c>
       <c r="P11" t="n">
-        <v>393.3666776696722</v>
+        <v>392.9821091504546</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30638,28 +30832,28 @@
         <v>0.0781</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.6191898644508589</v>
+        <v>-0.5917771794583634</v>
       </c>
       <c r="J12" t="n">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K12" t="n">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="L12" t="n">
-        <v>0.08927885498991772</v>
+        <v>0.08187127273710681</v>
       </c>
       <c r="M12" t="n">
-        <v>10.25331743618173</v>
+        <v>10.34112923469059</v>
       </c>
       <c r="N12" t="n">
-        <v>196.9360396119484</v>
+        <v>198.8026835314389</v>
       </c>
       <c r="O12" t="n">
-        <v>14.03339016816494</v>
+        <v>14.09974054837318</v>
       </c>
       <c r="P12" t="n">
-        <v>386.8248683706872</v>
+        <v>386.5282020042735</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30716,28 +30910,28 @@
         <v>0.0823</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2649195690909116</v>
+        <v>-0.2537836102666319</v>
       </c>
       <c r="J13" t="n">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K13" t="n">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02203101536055863</v>
+        <v>0.02043611520508248</v>
       </c>
       <c r="M13" t="n">
-        <v>9.376595735731703</v>
+        <v>9.369821945628926</v>
       </c>
       <c r="N13" t="n">
-        <v>157.5984104742193</v>
+        <v>157.034414470965</v>
       </c>
       <c r="O13" t="n">
-        <v>12.55382055289223</v>
+        <v>12.53133729778929</v>
       </c>
       <c r="P13" t="n">
-        <v>382.624063638329</v>
+        <v>382.5045443903715</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30794,28 +30988,28 @@
         <v>0.0531</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1649473272891435</v>
+        <v>-0.1577659144115792</v>
       </c>
       <c r="J14" t="n">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K14" t="n">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="L14" t="n">
-        <v>0.007037980875974736</v>
+        <v>0.006508828780577014</v>
       </c>
       <c r="M14" t="n">
-        <v>10.44208749419421</v>
+        <v>10.40871213469762</v>
       </c>
       <c r="N14" t="n">
-        <v>198.235094357457</v>
+        <v>197.1753330781227</v>
       </c>
       <c r="O14" t="n">
-        <v>14.07959851549244</v>
+        <v>14.04191344077162</v>
       </c>
       <c r="P14" t="n">
-        <v>386.5278963917722</v>
+        <v>386.4512296313006</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -30872,28 +31066,28 @@
         <v>0.0436</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.05857330894387046</v>
+        <v>-0.06780797197447566</v>
       </c>
       <c r="J15" t="n">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="K15" t="n">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0007933534560062849</v>
+        <v>0.001071600735989331</v>
       </c>
       <c r="M15" t="n">
-        <v>11.54250165977081</v>
+        <v>11.52953448937487</v>
       </c>
       <c r="N15" t="n">
-        <v>218.341204463873</v>
+        <v>217.6066886830787</v>
       </c>
       <c r="O15" t="n">
-        <v>14.77637318369677</v>
+        <v>14.75149784540806</v>
       </c>
       <c r="P15" t="n">
-        <v>392.1930218498342</v>
+        <v>392.2934919882629</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -30931,7 +31125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P484"/>
+  <dimension ref="A1:P487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -66487,7 +66681,11 @@
           <t>2025-03-01 22:19:15+00:00</t>
         </is>
       </c>
-      <c r="B484" t="inlineStr"/>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>-40.72811215893155,172.3150066009047</t>
+        </is>
+      </c>
       <c r="C484" t="inlineStr">
         <is>
           <t>-40.72746145033151,172.3153939024183</t>
@@ -66556,6 +66754,252 @@
       <c r="P484" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-09 22:19:02+00:00</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>-40.72802429521564,172.3148768973979</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>-40.72742886097422,172.315345794539</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>-40.727036187428865,172.31611401009513</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>-40.72655340973848,172.31674922114817</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>-40.726049153262345,172.31733186767488</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>-40.72553888777989,172.31790388886904</t>
+        </is>
+      </c>
+      <c r="H485" t="inlineStr">
+        <is>
+          <t>-40.72499157270535,172.31843779379398</t>
+        </is>
+      </c>
+      <c r="I485" t="inlineStr">
+        <is>
+          <t>-40.72445876552285,172.31899699161195</t>
+        </is>
+      </c>
+      <c r="J485" t="inlineStr">
+        <is>
+          <t>-40.72390607140476,172.31951601855533</t>
+        </is>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>-40.72334530103647,172.3200201852644</t>
+        </is>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>-40.72290945696073,172.32074240957112</t>
+        </is>
+      </c>
+      <c r="M485" t="inlineStr">
+        <is>
+          <t>-40.72243727632924,172.3214036372849</t>
+        </is>
+      </c>
+      <c r="N485" t="inlineStr">
+        <is>
+          <t>-40.72187635125145,172.3219486170494</t>
+        </is>
+      </c>
+      <c r="O485" t="inlineStr">
+        <is>
+          <t>-40.721418860478536,172.3226333240978</t>
+        </is>
+      </c>
+      <c r="P485" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:18:51+00:00</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>-40.72802078066399,172.31487170926476</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>-40.72745725684915,172.31538771206354</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>-40.727037625184714,172.31611613250064</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>-40.726557603169894,172.3167554114814</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>-40.7260637389827,172.31735442279412</t>
+        </is>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>-40.725550326380024,172.317922490985</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>-40.724978922010386,172.31841714704674</t>
+        </is>
+      </c>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>-40.72445662464739,172.318993497562</t>
+        </is>
+      </c>
+      <c r="J486" t="inlineStr">
+        <is>
+          <t>-40.7239215307212,172.31954163013776</t>
+        </is>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>-40.723408474090235,172.32012645593724</t>
+        </is>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>-40.72288554795919,172.32070217963837</t>
+        </is>
+      </c>
+      <c r="M486" t="inlineStr">
+        <is>
+          <t>-40.72240537146988,172.3213499530922</t>
+        </is>
+      </c>
+      <c r="N486" t="inlineStr">
+        <is>
+          <t>-40.7218484747995,172.32190657487985</t>
+        </is>
+      </c>
+      <c r="O486" t="inlineStr">
+        <is>
+          <t>-40.721411326835124,172.32262313461896</t>
+        </is>
+      </c>
+      <c r="P486" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-10 22:18:46+00:00</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>-40.72802427524658,172.3148768679199</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>-40.727479901649986,172.31542113998842</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>-40.72704978620143,172.31613408451773</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>-40.72655340973848,172.31674922114817</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>-40.72605825475236,172.31734594206813</t>
+        </is>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>-40.72552971424693,172.31788897034502</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>-40.7249533694789,172.3183754437152</t>
+        </is>
+      </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>-40.724414403548245,172.31892459002432</t>
+        </is>
+      </c>
+      <c r="J487" t="inlineStr">
+        <is>
+          <t>-40.72392269405787,172.31954355744847</t>
+        </is>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>-40.723451458333926,172.32019876489483</t>
+        </is>
+      </c>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>-40.72296251936717,172.3208316939981</t>
+        </is>
+      </c>
+      <c r="M487" t="inlineStr">
+        <is>
+          <t>-40.72242287663042,172.32137940785438</t>
+        </is>
+      </c>
+      <c r="N487" t="inlineStr">
+        <is>
+          <t>-40.7218237351755,172.32186926359955</t>
+        </is>
+      </c>
+      <c r="O487" t="inlineStr">
+        <is>
+          <t>-40.72130441178279,172.32247852917962</t>
+        </is>
+      </c>
+      <c r="P487" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0317/nzd0317.xlsx
+++ b/data/nzd0317/nzd0317.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P487"/>
+  <dimension ref="A1:P490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24730,6 +24730,138 @@
         </is>
       </c>
     </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:18:35+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>401.2233333333333</v>
+      </c>
+      <c r="C488" t="n">
+        <v>425.7</v>
+      </c>
+      <c r="D488" t="n">
+        <v>406.47</v>
+      </c>
+      <c r="E488" t="n">
+        <v>400.89</v>
+      </c>
+      <c r="F488" t="n">
+        <v>407.36</v>
+      </c>
+      <c r="G488" t="n">
+        <v>408.79</v>
+      </c>
+      <c r="H488" t="inlineStr"/>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
+      <c r="L488" t="inlineStr"/>
+      <c r="M488" t="inlineStr"/>
+      <c r="N488" t="inlineStr"/>
+      <c r="O488" t="inlineStr"/>
+      <c r="P488" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:12:34+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>412.29</v>
+      </c>
+      <c r="C489" t="n">
+        <v>431.15</v>
+      </c>
+      <c r="D489" t="n">
+        <v>414.29</v>
+      </c>
+      <c r="E489" t="n">
+        <v>406.33</v>
+      </c>
+      <c r="F489" t="n">
+        <v>414.25</v>
+      </c>
+      <c r="G489" t="n">
+        <v>410.55</v>
+      </c>
+      <c r="H489" t="n">
+        <v>415.02</v>
+      </c>
+      <c r="I489" t="n">
+        <v>413.32</v>
+      </c>
+      <c r="J489" t="n">
+        <v>408.69</v>
+      </c>
+      <c r="K489" t="n">
+        <v>399.71</v>
+      </c>
+      <c r="L489" t="n">
+        <v>390.2042857142857</v>
+      </c>
+      <c r="M489" t="n">
+        <v>387.46</v>
+      </c>
+      <c r="N489" t="n">
+        <v>396.18</v>
+      </c>
+      <c r="O489" t="n">
+        <v>398.96</v>
+      </c>
+      <c r="P489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:12:27+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr"/>
+      <c r="C490" t="inlineStr"/>
+      <c r="D490" t="inlineStr"/>
+      <c r="E490" t="inlineStr"/>
+      <c r="F490" t="inlineStr"/>
+      <c r="G490" t="inlineStr"/>
+      <c r="H490" t="n">
+        <v>407.1366666666667</v>
+      </c>
+      <c r="I490" t="n">
+        <v>414.4866666666667</v>
+      </c>
+      <c r="J490" t="n">
+        <v>399.6666666666667</v>
+      </c>
+      <c r="K490" t="n">
+        <v>397.61</v>
+      </c>
+      <c r="L490" t="inlineStr"/>
+      <c r="M490" t="n">
+        <v>369.79</v>
+      </c>
+      <c r="N490" t="n">
+        <v>421.14</v>
+      </c>
+      <c r="O490" t="n">
+        <v>416.7</v>
+      </c>
+      <c r="P490" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24741,7 +24873,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B513"/>
+  <dimension ref="A1:B516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29879,6 +30011,36 @@
       </c>
       <c r="B513" t="n">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>-0.78</v>
       </c>
     </row>
   </sheetData>
@@ -30052,28 +30214,28 @@
         <v>0.0646</v>
       </c>
       <c r="I2" t="n">
-        <v>1.136676882412116</v>
+        <v>1.115186498004078</v>
       </c>
       <c r="J2" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K2" t="n">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1324350239941702</v>
+        <v>0.1285530698203521</v>
       </c>
       <c r="M2" t="n">
-        <v>16.08263113377345</v>
+        <v>16.07291590966535</v>
       </c>
       <c r="N2" t="n">
-        <v>453.580123268674</v>
+        <v>453.7151481222623</v>
       </c>
       <c r="O2" t="n">
-        <v>21.29742057782289</v>
+        <v>21.30059032332818</v>
       </c>
       <c r="P2" t="n">
-        <v>398.8385620211544</v>
+        <v>399.0635411344464</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30130,28 +30292,28 @@
         <v>0.0536</v>
       </c>
       <c r="I3" t="n">
-        <v>1.043695711099093</v>
+        <v>1.063737619004174</v>
       </c>
       <c r="J3" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K3" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L3" t="n">
-        <v>0.123856140386826</v>
+        <v>0.1283871053731772</v>
       </c>
       <c r="M3" t="n">
-        <v>15.26708581366521</v>
+        <v>15.31988291419194</v>
       </c>
       <c r="N3" t="n">
-        <v>390.1911108054474</v>
+        <v>390.4807849301895</v>
       </c>
       <c r="O3" t="n">
-        <v>19.75325570141407</v>
+        <v>19.76058665450471</v>
       </c>
       <c r="P3" t="n">
-        <v>380.4885666422615</v>
+        <v>380.2697230815518</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30208,28 +30370,28 @@
         <v>0.0554</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03773934471123026</v>
+        <v>-0.01694311000771761</v>
       </c>
       <c r="J4" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K4" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004804659919969145</v>
+        <v>9.606264310757506e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>9.702561256370501</v>
+        <v>9.78138824759287</v>
       </c>
       <c r="N4" t="n">
-        <v>152.8824877318572</v>
+        <v>154.7566774282417</v>
       </c>
       <c r="O4" t="n">
-        <v>12.36456581250863</v>
+        <v>12.4401236902308</v>
       </c>
       <c r="P4" t="n">
-        <v>388.5161374003157</v>
+        <v>388.2921808547985</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30286,28 +30448,28 @@
         <v>0.054</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.397669045267795</v>
+        <v>-0.3786299841737749</v>
       </c>
       <c r="J5" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K5" t="n">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05794361878395204</v>
+        <v>0.05239584467945413</v>
       </c>
       <c r="M5" t="n">
-        <v>8.81348562227206</v>
+        <v>8.888615432938208</v>
       </c>
       <c r="N5" t="n">
-        <v>131.9820274645104</v>
+        <v>133.5710883361664</v>
       </c>
       <c r="O5" t="n">
-        <v>11.48834311223818</v>
+        <v>11.55729589204008</v>
       </c>
       <c r="P5" t="n">
-        <v>392.4717266979744</v>
+        <v>392.2655883329967</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30364,28 +30526,28 @@
         <v>0.0523</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5857003805924197</v>
+        <v>-0.5581494207311773</v>
       </c>
       <c r="J6" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K6" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1163874296617888</v>
+        <v>0.1042992760814619</v>
       </c>
       <c r="M6" t="n">
-        <v>9.145666978594543</v>
+        <v>9.25718951499818</v>
       </c>
       <c r="N6" t="n">
-        <v>132.3573853207726</v>
+        <v>136.4412025809695</v>
       </c>
       <c r="O6" t="n">
-        <v>11.50466797959735</v>
+        <v>11.68080487727492</v>
       </c>
       <c r="P6" t="n">
-        <v>394.3857392086884</v>
+        <v>394.0854766875035</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30442,28 +30604,28 @@
         <v>0.0513</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5523983227236416</v>
+        <v>-0.5250801638626483</v>
       </c>
       <c r="J7" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K7" t="n">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1040070973009196</v>
+        <v>0.09273344237763692</v>
       </c>
       <c r="M7" t="n">
-        <v>9.277968769448179</v>
+        <v>9.381612621091881</v>
       </c>
       <c r="N7" t="n">
-        <v>133.1570645253862</v>
+        <v>137.1097367077597</v>
       </c>
       <c r="O7" t="n">
-        <v>11.53937019621895</v>
+        <v>11.70938669221235</v>
       </c>
       <c r="P7" t="n">
-        <v>392.6796806358028</v>
+        <v>392.3809203486012</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30520,28 +30682,28 @@
         <v>0.0461</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4958990786314811</v>
+        <v>-0.4702096389153064</v>
       </c>
       <c r="J8" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K8" t="n">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07604279183069762</v>
+        <v>0.06765785898322152</v>
       </c>
       <c r="M8" t="n">
-        <v>9.855878655269793</v>
+        <v>9.956148111931103</v>
       </c>
       <c r="N8" t="n">
-        <v>151.3596608941803</v>
+        <v>154.858365493256</v>
       </c>
       <c r="O8" t="n">
-        <v>12.30283141777454</v>
+        <v>12.4442101192987</v>
       </c>
       <c r="P8" t="n">
-        <v>393.961789864187</v>
+        <v>393.6803861519769</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30598,28 +30760,28 @@
         <v>0.0454</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.6009785802332575</v>
+        <v>-0.5739894495003195</v>
       </c>
       <c r="J9" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K9" t="n">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1059098561670198</v>
+        <v>0.09562731086159204</v>
       </c>
       <c r="M9" t="n">
-        <v>9.905348926777055</v>
+        <v>10.02011333472909</v>
       </c>
       <c r="N9" t="n">
-        <v>154.0251155663782</v>
+        <v>157.9246624265641</v>
       </c>
       <c r="O9" t="n">
-        <v>12.41068553974269</v>
+        <v>12.56680796489562</v>
       </c>
       <c r="P9" t="n">
-        <v>397.6045832728124</v>
+        <v>397.3084164204694</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30676,28 +30838,28 @@
         <v>0.0464</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.6480007988729478</v>
+        <v>-0.6266900160895522</v>
       </c>
       <c r="J10" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K10" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1135827881080564</v>
+        <v>0.1061055606117263</v>
       </c>
       <c r="M10" t="n">
-        <v>10.09751679831576</v>
+        <v>10.1687917961617</v>
       </c>
       <c r="N10" t="n">
-        <v>165.075089367834</v>
+        <v>167.2382665143122</v>
       </c>
       <c r="O10" t="n">
-        <v>12.84815509588182</v>
+        <v>12.93206350565571</v>
       </c>
       <c r="P10" t="n">
-        <v>395.9949798930638</v>
+        <v>395.7609829537838</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30754,28 +30916,28 @@
         <v>0.0521</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.7329831510189526</v>
+        <v>-0.7120789877750276</v>
       </c>
       <c r="J11" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K11" t="n">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1107782254121138</v>
+        <v>0.1048061358648853</v>
       </c>
       <c r="M11" t="n">
-        <v>11.48037823450065</v>
+        <v>11.54860720190548</v>
       </c>
       <c r="N11" t="n">
-        <v>220.7548699239819</v>
+        <v>222.4810992913002</v>
       </c>
       <c r="O11" t="n">
-        <v>14.85782184319027</v>
+        <v>14.91580032352606</v>
       </c>
       <c r="P11" t="n">
-        <v>392.9821091504546</v>
+        <v>392.7559702099267</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30832,28 +30994,28 @@
         <v>0.0781</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.5917771794583634</v>
+        <v>-0.5834066699469658</v>
       </c>
       <c r="J12" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K12" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L12" t="n">
-        <v>0.08187127273710681</v>
+        <v>0.07975143600676304</v>
       </c>
       <c r="M12" t="n">
-        <v>10.34112923469059</v>
+        <v>10.3654803425803</v>
       </c>
       <c r="N12" t="n">
-        <v>198.8026835314389</v>
+        <v>199.1736353516619</v>
       </c>
       <c r="O12" t="n">
-        <v>14.09974054837318</v>
+        <v>14.11288897964063</v>
       </c>
       <c r="P12" t="n">
-        <v>386.5282020042735</v>
+        <v>386.4369374248149</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -30910,28 +31072,28 @@
         <v>0.0823</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2537836102666319</v>
+        <v>-0.2514838167030725</v>
       </c>
       <c r="J13" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K13" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02043611520508248</v>
+        <v>0.02019146122708337</v>
       </c>
       <c r="M13" t="n">
-        <v>9.369821945628926</v>
+        <v>9.367364825375711</v>
       </c>
       <c r="N13" t="n">
-        <v>157.034414470965</v>
+        <v>156.6998443985524</v>
       </c>
       <c r="O13" t="n">
-        <v>12.53133729778929</v>
+        <v>12.51798084351276</v>
       </c>
       <c r="P13" t="n">
-        <v>382.5045443903715</v>
+        <v>382.4797282649843</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -30988,28 +31150,28 @@
         <v>0.0531</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1577659144115792</v>
+        <v>-0.1357418469339655</v>
       </c>
       <c r="J14" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K14" t="n">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L14" t="n">
-        <v>0.006508828780577014</v>
+        <v>0.004772138370229162</v>
       </c>
       <c r="M14" t="n">
-        <v>10.40871213469762</v>
+        <v>10.48108939367608</v>
       </c>
       <c r="N14" t="n">
-        <v>197.1753330781227</v>
+        <v>200.1175006256411</v>
       </c>
       <c r="O14" t="n">
-        <v>14.04191344077162</v>
+        <v>14.14628928820704</v>
       </c>
       <c r="P14" t="n">
-        <v>386.4512296313006</v>
+        <v>386.2144825633258</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31066,28 +31228,28 @@
         <v>0.0436</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.06780797197447566</v>
+        <v>-0.05262006041972852</v>
       </c>
       <c r="J15" t="n">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="K15" t="n">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001071600735989331</v>
+        <v>0.0006454591048666858</v>
       </c>
       <c r="M15" t="n">
-        <v>11.52953448937487</v>
+        <v>11.56148491461306</v>
       </c>
       <c r="N15" t="n">
-        <v>217.6066886830787</v>
+        <v>218.3650521443468</v>
       </c>
       <c r="O15" t="n">
-        <v>14.75149784540806</v>
+        <v>14.77718011476976</v>
       </c>
       <c r="P15" t="n">
-        <v>392.2934919882629</v>
+        <v>392.1265160824432</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -31125,7 +31287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P487"/>
+  <dimension ref="A1:P490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67003,6 +67165,192 @@
         </is>
       </c>
     </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-12 22:18:35+00:00</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>-40.72809007320199,172.31497399812744</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>-40.72743299455188,172.31535189645493</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>-40.7270377449977,172.31611630936777</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>-40.72656071829015,172.31676001001514</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>-40.72602027352316,172.31728720856785</t>
+        </is>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>-40.725491208038385,172.31782634942473</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr"/>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
+      <c r="L488" t="inlineStr"/>
+      <c r="M488" t="inlineStr"/>
+      <c r="N488" t="inlineStr"/>
+      <c r="O488" t="inlineStr"/>
+      <c r="P488" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-13 22:12:34+00:00</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>-40.72802377602052,172.3148761309691</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>-40.72740034527031,172.3153037001832</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>-40.7269908980997,172.31604715436788</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>-40.72652812933077,172.31671190229872</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>-40.72598007523142,172.31722504676407</t>
+        </is>
+      </c>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>-40.725481241720104,172.3178101416689</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>-40.72492458362394,172.31832846346484</t>
+        </is>
+      </c>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>-40.724402060539674,172.31890444547292</t>
+        </is>
+      </c>
+      <c r="J489" t="inlineStr">
+        <is>
+          <t>-40.72389904161313,172.31950437224614</t>
+        </is>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>-40.72341357673828,172.3201350397054</t>
+        </is>
+      </c>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>-40.72292793929071,172.32077350847527</t>
+        </is>
+      </c>
+      <c r="M489" t="inlineStr">
+        <is>
+          <t>-40.72240476146943,172.32134892668577</t>
+        </is>
+      </c>
+      <c r="N489" t="inlineStr">
+        <is>
+          <t>-40.721801244597856,172.32183534427782</t>
+        </is>
+      </c>
+      <c r="O489" t="inlineStr">
+        <is>
+          <t>-40.721281999150726,172.32244821559073</t>
+        </is>
+      </c>
+      <c r="P489" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:12:27+00:00</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr"/>
+      <c r="C490" t="inlineStr"/>
+      <c r="D490" t="inlineStr"/>
+      <c r="E490" t="inlineStr"/>
+      <c r="F490" t="inlineStr"/>
+      <c r="G490" t="inlineStr"/>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>-40.724969127921455,172.31840116247363</t>
+        </is>
+      </c>
+      <c r="I490" t="inlineStr">
+        <is>
+          <t>-40.72439546839227,172.3188936866871</t>
+        </is>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>-40.72394956277119,172.31958807113</t>
+        </is>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>-40.72342522408473,172.32015463309415</t>
+        </is>
+      </c>
+      <c r="L490" t="inlineStr"/>
+      <c r="M490" t="inlineStr">
+        <is>
+          <t>-40.722502749607436,172.32151380512298</t>
+        </is>
+      </c>
+      <c r="N490" t="inlineStr">
+        <is>
+          <t>-40.72165351676879,172.32161254845943</t>
+        </is>
+      </c>
+      <c r="O490" t="inlineStr">
+        <is>
+          <t>-40.721170626458694,172.3222975819801</t>
+        </is>
+      </c>
+      <c r="P490" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0317/nzd0317.xlsx
+++ b/data/nzd0317/nzd0317.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P490"/>
+  <dimension ref="A1:P492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24862,6 +24862,94 @@
         </is>
       </c>
     </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-28 22:18:40+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr"/>
+      <c r="C491" t="n">
+        <v>397.57</v>
+      </c>
+      <c r="D491" t="n">
+        <v>405.42</v>
+      </c>
+      <c r="E491" t="inlineStr"/>
+      <c r="F491" t="inlineStr"/>
+      <c r="G491" t="inlineStr"/>
+      <c r="H491" t="inlineStr"/>
+      <c r="I491" t="inlineStr"/>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
+      <c r="L491" t="n">
+        <v>351.0171428571429</v>
+      </c>
+      <c r="M491" t="n">
+        <v>391.9500000000001</v>
+      </c>
+      <c r="N491" t="n">
+        <v>408.58</v>
+      </c>
+      <c r="O491" t="inlineStr"/>
+      <c r="P491" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:12:35+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>415.7033333333333</v>
+      </c>
+      <c r="C492" t="n">
+        <v>435.24</v>
+      </c>
+      <c r="D492" t="n">
+        <v>433.77</v>
+      </c>
+      <c r="E492" t="n">
+        <v>417.64</v>
+      </c>
+      <c r="F492" t="n">
+        <v>424.52</v>
+      </c>
+      <c r="G492" t="n">
+        <v>413.65</v>
+      </c>
+      <c r="H492" t="n">
+        <v>407.9577777777778</v>
+      </c>
+      <c r="I492" t="n">
+        <v>402.8877777777778</v>
+      </c>
+      <c r="J492" t="n">
+        <v>419.8277777777778</v>
+      </c>
+      <c r="K492" t="n">
+        <v>416.93</v>
+      </c>
+      <c r="L492" t="inlineStr"/>
+      <c r="M492" t="n">
+        <v>380.2866666666667</v>
+      </c>
+      <c r="N492" t="n">
+        <v>403.33</v>
+      </c>
+      <c r="O492" t="n">
+        <v>400.63</v>
+      </c>
+      <c r="P492" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -24873,7 +24961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B516"/>
+  <dimension ref="A1:B518"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30041,6 +30129,26 @@
       </c>
       <c r="B516" t="n">
         <v>-0.78</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>2025-05-28 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -30214,28 +30322,28 @@
         <v>0.0646</v>
       </c>
       <c r="I2" t="n">
-        <v>1.115186498004078</v>
+        <v>1.10905916416874</v>
       </c>
       <c r="J2" t="n">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K2" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1285530698203521</v>
+        <v>0.1277741655701281</v>
       </c>
       <c r="M2" t="n">
-        <v>16.07291590966535</v>
+        <v>16.050620770669</v>
       </c>
       <c r="N2" t="n">
-        <v>453.7151481222623</v>
+        <v>452.8558613280227</v>
       </c>
       <c r="O2" t="n">
-        <v>21.30059032332818</v>
+        <v>21.28041027160949</v>
       </c>
       <c r="P2" t="n">
-        <v>399.0635411344464</v>
+        <v>399.12799810968</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30292,28 +30400,28 @@
         <v>0.0536</v>
       </c>
       <c r="I3" t="n">
-        <v>1.063737619004174</v>
+        <v>1.071999891596334</v>
       </c>
       <c r="J3" t="n">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K3" t="n">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1283871053731772</v>
+        <v>0.1305018535886499</v>
       </c>
       <c r="M3" t="n">
-        <v>15.31988291419194</v>
+        <v>15.34757209726563</v>
       </c>
       <c r="N3" t="n">
-        <v>390.4807849301895</v>
+        <v>390.6767320943345</v>
       </c>
       <c r="O3" t="n">
-        <v>19.76058665450471</v>
+        <v>19.76554406269492</v>
       </c>
       <c r="P3" t="n">
-        <v>380.2697230815518</v>
+        <v>380.178954114054</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30370,28 +30478,28 @@
         <v>0.0554</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01694311000771761</v>
+        <v>0.01180048300913328</v>
       </c>
       <c r="J4" t="n">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K4" t="n">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L4" t="n">
-        <v>9.606264310757506e-05</v>
+        <v>4.526778891500438e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>9.78138824759287</v>
+        <v>9.91081373907681</v>
       </c>
       <c r="N4" t="n">
-        <v>154.7566774282417</v>
+        <v>159.9048130631081</v>
       </c>
       <c r="O4" t="n">
-        <v>12.4401236902308</v>
+        <v>12.64534748684702</v>
       </c>
       <c r="P4" t="n">
-        <v>388.2921808547985</v>
+        <v>387.9813896777577</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30448,28 +30556,28 @@
         <v>0.054</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3786299841737749</v>
+        <v>-0.3629275882441099</v>
       </c>
       <c r="J5" t="n">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K5" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L5" t="n">
-        <v>0.05239584467945413</v>
+        <v>0.04752885956141417</v>
       </c>
       <c r="M5" t="n">
-        <v>8.888615432938208</v>
+        <v>8.963339941949258</v>
       </c>
       <c r="N5" t="n">
-        <v>133.5710883361664</v>
+        <v>136.2311097600032</v>
       </c>
       <c r="O5" t="n">
-        <v>11.55729589204008</v>
+        <v>11.67180833290211</v>
       </c>
       <c r="P5" t="n">
-        <v>392.2655883329967</v>
+        <v>392.0947730997772</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30526,28 +30634,28 @@
         <v>0.0523</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5581494207311773</v>
+        <v>-0.5384721916450493</v>
       </c>
       <c r="J6" t="n">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K6" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1042992760814619</v>
+        <v>0.09515819537000014</v>
       </c>
       <c r="M6" t="n">
-        <v>9.25718951499818</v>
+        <v>9.347256529866469</v>
       </c>
       <c r="N6" t="n">
-        <v>136.4412025809695</v>
+        <v>140.8608901975283</v>
       </c>
       <c r="O6" t="n">
-        <v>11.68080487727492</v>
+        <v>11.86848306219158</v>
       </c>
       <c r="P6" t="n">
-        <v>394.0854766875035</v>
+        <v>393.8700204851962</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30604,28 +30712,28 @@
         <v>0.0513</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5250801638626483</v>
+        <v>-0.5097893600639293</v>
       </c>
       <c r="J7" t="n">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K7" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09273344237763692</v>
+        <v>0.08655704229963723</v>
       </c>
       <c r="M7" t="n">
-        <v>9.381612621091881</v>
+        <v>9.442911892635061</v>
       </c>
       <c r="N7" t="n">
-        <v>137.1097367077597</v>
+        <v>139.6507437958929</v>
       </c>
       <c r="O7" t="n">
-        <v>11.70938669221235</v>
+        <v>11.81739158172788</v>
       </c>
       <c r="P7" t="n">
-        <v>392.3809203486012</v>
+        <v>392.2129077967976</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30682,28 +30790,28 @@
         <v>0.0461</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4702096389153064</v>
+        <v>-0.4588320783256718</v>
       </c>
       <c r="J8" t="n">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K8" t="n">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06765785898322152</v>
+        <v>0.06424663475694203</v>
       </c>
       <c r="M8" t="n">
-        <v>9.956148111931103</v>
+        <v>9.997835806104293</v>
       </c>
       <c r="N8" t="n">
-        <v>154.858365493256</v>
+        <v>156.1186842674916</v>
       </c>
       <c r="O8" t="n">
-        <v>12.4442101192987</v>
+        <v>12.49474626663109</v>
       </c>
       <c r="P8" t="n">
-        <v>393.6803861519769</v>
+        <v>393.5552388808236</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30760,28 +30868,28 @@
         <v>0.0454</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5739894495003195</v>
+        <v>-0.5653097209258751</v>
       </c>
       <c r="J9" t="n">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K9" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09562731086159204</v>
+        <v>0.0928524610532615</v>
       </c>
       <c r="M9" t="n">
-        <v>10.02011333472909</v>
+        <v>10.04855556120741</v>
       </c>
       <c r="N9" t="n">
-        <v>157.9246624265641</v>
+        <v>158.5139849198325</v>
       </c>
       <c r="O9" t="n">
-        <v>12.56680796489562</v>
+        <v>12.59023371188289</v>
       </c>
       <c r="P9" t="n">
-        <v>397.3084164204694</v>
+        <v>397.2127834773283</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30838,28 +30946,28 @@
         <v>0.0464</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.6266900160895522</v>
+        <v>-0.609404111954524</v>
       </c>
       <c r="J10" t="n">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K10" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1061055606117263</v>
+        <v>0.09928696901244705</v>
       </c>
       <c r="M10" t="n">
-        <v>10.1687917961617</v>
+        <v>10.24084214959471</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2382665143122</v>
+        <v>170.5826932202156</v>
       </c>
       <c r="O10" t="n">
-        <v>12.93206350565571</v>
+        <v>13.06073096041013</v>
       </c>
       <c r="P10" t="n">
-        <v>395.7609829537838</v>
+        <v>395.5703953210417</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -30916,28 +31024,28 @@
         <v>0.0521</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.7120789877750276</v>
+        <v>-0.6939221887642141</v>
       </c>
       <c r="J11" t="n">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K11" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1048061358648853</v>
+        <v>0.09877162802956907</v>
       </c>
       <c r="M11" t="n">
-        <v>11.54860720190548</v>
+        <v>11.628430112496</v>
       </c>
       <c r="N11" t="n">
-        <v>222.4810992913002</v>
+        <v>226.1045535464294</v>
       </c>
       <c r="O11" t="n">
-        <v>14.91580032352606</v>
+        <v>15.03677337550943</v>
       </c>
       <c r="P11" t="n">
-        <v>392.7559702099267</v>
+        <v>392.5587609856083</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -30994,28 +31102,28 @@
         <v>0.0781</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.5834066699469658</v>
+        <v>-0.5924221179911869</v>
       </c>
       <c r="J12" t="n">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K12" t="n">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L12" t="n">
-        <v>0.07975143600676304</v>
+        <v>0.08197668670614522</v>
       </c>
       <c r="M12" t="n">
-        <v>10.3654803425803</v>
+        <v>10.38471791425566</v>
       </c>
       <c r="N12" t="n">
-        <v>199.1736353516619</v>
+        <v>199.682002170885</v>
       </c>
       <c r="O12" t="n">
-        <v>14.11288897964063</v>
+        <v>14.13088823007545</v>
       </c>
       <c r="P12" t="n">
-        <v>386.4369374248149</v>
+        <v>386.5354437715002</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31072,28 +31180,28 @@
         <v>0.0823</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2514838167030725</v>
+        <v>-0.2427408000659506</v>
       </c>
       <c r="J13" t="n">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K13" t="n">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02019146122708337</v>
+        <v>0.01891912231105275</v>
       </c>
       <c r="M13" t="n">
-        <v>9.367364825375711</v>
+        <v>9.3703871332318</v>
       </c>
       <c r="N13" t="n">
-        <v>156.6998443985524</v>
+        <v>156.5998995301789</v>
       </c>
       <c r="O13" t="n">
-        <v>12.51798084351276</v>
+        <v>12.51398815446854</v>
       </c>
       <c r="P13" t="n">
-        <v>382.4797282649843</v>
+        <v>382.3850155273923</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31150,28 +31258,28 @@
         <v>0.0531</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1357418469339655</v>
+        <v>-0.116407249816835</v>
       </c>
       <c r="J14" t="n">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K14" t="n">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L14" t="n">
-        <v>0.004772138370229162</v>
+        <v>0.00349870609614733</v>
       </c>
       <c r="M14" t="n">
-        <v>10.48108939367608</v>
+        <v>10.53960957143899</v>
       </c>
       <c r="N14" t="n">
-        <v>200.1175006256411</v>
+        <v>201.6740241033556</v>
       </c>
       <c r="O14" t="n">
-        <v>14.14628928820704</v>
+        <v>14.20119798127453</v>
       </c>
       <c r="P14" t="n">
-        <v>386.2144825633258</v>
+        <v>386.0061400797854</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31228,28 +31336,28 @@
         <v>0.0436</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.05262006041972852</v>
+        <v>-0.04828154589626051</v>
       </c>
       <c r="J15" t="n">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="K15" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0006454591048666858</v>
+        <v>0.0005451044681528128</v>
       </c>
       <c r="M15" t="n">
-        <v>11.56148491461306</v>
+        <v>11.55897950624615</v>
       </c>
       <c r="N15" t="n">
-        <v>218.3650521443468</v>
+        <v>218.0695321132304</v>
       </c>
       <c r="O15" t="n">
-        <v>14.77718011476976</v>
+        <v>14.76717752697618</v>
       </c>
       <c r="P15" t="n">
-        <v>392.1265160824432</v>
+        <v>392.0786343860958</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -31287,7 +31395,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P490"/>
+  <dimension ref="A1:P492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33306,7 +33414,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>-40.72333931096137,172.32001010868777</t>
+          <t>-40.723339310961364,172.32001010868777</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -45816,7 +45924,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>-40.721419425501765,172.3226340883088</t>
+          <t>-40.72141942550176,172.3226340883088</t>
         </is>
       </c>
       <c r="P201" t="inlineStr">
@@ -50685,7 +50793,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>-40.72804837787578,172.31491244791602</t>
+          <t>-40.72804837787577,172.31491244791602</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -52051,7 +52159,7 @@
       </c>
       <c r="L286" t="inlineStr">
         <is>
-          <t>-40.723010091681445,172.32091174084695</t>
+          <t>-40.72301009168145,172.32091174084695</t>
         </is>
       </c>
       <c r="M286" t="inlineStr">
@@ -55225,7 +55333,7 @@
       <c r="G329" t="inlineStr"/>
       <c r="H329" t="inlineStr">
         <is>
-          <t>-40.72517071619845,172.31873016897035</t>
+          <t>-40.72517071619844,172.31873016897035</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -60412,7 +60520,7 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>-40.726693290451465,172.31695571339748</t>
+          <t>-40.72669329045147,172.31695571339748</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
@@ -67091,7 +67199,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>-40.72802427524658,172.3148768679199</t>
+          <t>-40.72802427524659,172.3148768679199</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -67351,6 +67459,130 @@
         </is>
       </c>
     </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-28 22:18:40+00:00</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr"/>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>-40.72760151245346,172.31560066071393</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>-40.72704403517909,172.31612559489304</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr"/>
+      <c r="F491" t="inlineStr"/>
+      <c r="G491" t="inlineStr"/>
+      <c r="H491" t="inlineStr"/>
+      <c r="I491" t="inlineStr"/>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>-40.72314525062433,172.3211391651656</t>
+        </is>
+      </c>
+      <c r="M491" t="inlineStr">
+        <is>
+          <t>-40.722379862352476,172.3213070306576</t>
+        </is>
+      </c>
+      <c r="N491" t="inlineStr">
+        <is>
+          <t>-40.721727854223204,172.32172466033447</t>
+        </is>
+      </c>
+      <c r="O491" t="inlineStr"/>
+      <c r="P491" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-14 22:12:35+00:00</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>-40.728003327716635,172.3148459454752</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>-40.727375843319294,172.315267530902</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>-40.72687420002192,172.3158748863249</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>-40.72646037538289,172.3166118843843</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>-40.72592015696144,172.3171323906296</t>
+        </is>
+      </c>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>-40.725463687404016,172.317781593929</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>-40.724964488284975,172.3183935902961</t>
+        </is>
+      </c>
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>-40.724461006849836,172.31900064960587</t>
+        </is>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>-40.72383668171144,172.31940106031524</t>
+        </is>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>-40.7233180683732,172.3199743741761</t>
+        </is>
+      </c>
+      <c r="L492" t="inlineStr"/>
+      <c r="M492" t="inlineStr">
+        <is>
+          <t>-40.72244454087372,172.32141586086553</t>
+        </is>
+      </c>
+      <c r="N492" t="inlineStr">
+        <is>
+          <t>-40.72175892677369,172.3217715224582</t>
+        </is>
+      </c>
+      <c r="O492" t="inlineStr">
+        <is>
+          <t>-40.72127151480752,172.32243403529142</t>
+        </is>
+      </c>
+      <c r="P492" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0317/nzd0317.xlsx
+++ b/data/nzd0317/nzd0317.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P492"/>
+  <dimension ref="A1:P496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24934,7 +24934,9 @@
       <c r="K492" t="n">
         <v>416.93</v>
       </c>
-      <c r="L492" t="inlineStr"/>
+      <c r="L492" t="n">
+        <v>395.48</v>
+      </c>
       <c r="M492" t="n">
         <v>380.2866666666667</v>
       </c>
@@ -24945,6 +24947,198 @@
         <v>400.63</v>
       </c>
       <c r="P492" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:12:43+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr"/>
+      <c r="C493" t="inlineStr"/>
+      <c r="D493" t="inlineStr"/>
+      <c r="E493" t="inlineStr"/>
+      <c r="F493" t="inlineStr"/>
+      <c r="G493" t="n">
+        <v>406.9</v>
+      </c>
+      <c r="H493" t="n">
+        <v>403.6088888888889</v>
+      </c>
+      <c r="I493" t="n">
+        <v>398.2988888888889</v>
+      </c>
+      <c r="J493" t="n">
+        <v>399.4788888888889</v>
+      </c>
+      <c r="K493" t="n">
+        <v>394.64</v>
+      </c>
+      <c r="L493" t="n">
+        <v>380.4157142857143</v>
+      </c>
+      <c r="M493" t="n">
+        <v>380.8433333333334</v>
+      </c>
+      <c r="N493" t="n">
+        <v>384.43</v>
+      </c>
+      <c r="O493" t="n">
+        <v>386.72</v>
+      </c>
+      <c r="P493" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:12:43+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr"/>
+      <c r="C494" t="inlineStr"/>
+      <c r="D494" t="inlineStr"/>
+      <c r="E494" t="inlineStr"/>
+      <c r="F494" t="inlineStr"/>
+      <c r="G494" t="inlineStr"/>
+      <c r="H494" t="inlineStr"/>
+      <c r="I494" t="n">
+        <v>395.9188888888889</v>
+      </c>
+      <c r="J494" t="n">
+        <v>393.3188888888889</v>
+      </c>
+      <c r="K494" t="n">
+        <v>409.34</v>
+      </c>
+      <c r="L494" t="n">
+        <v>433.8057142857143</v>
+      </c>
+      <c r="M494" t="n">
+        <v>364.3533333333334</v>
+      </c>
+      <c r="N494" t="n">
+        <v>405.58</v>
+      </c>
+      <c r="O494" t="n">
+        <v>389.04</v>
+      </c>
+      <c r="P494" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:18:55+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>419.7833333333333</v>
+      </c>
+      <c r="C495" t="n">
+        <v>446.25</v>
+      </c>
+      <c r="D495" t="n">
+        <v>425.43</v>
+      </c>
+      <c r="E495" t="n">
+        <v>414.95</v>
+      </c>
+      <c r="F495" t="n">
+        <v>419.24</v>
+      </c>
+      <c r="G495" t="n">
+        <v>416.31</v>
+      </c>
+      <c r="H495" t="n">
+        <v>416.4344444444445</v>
+      </c>
+      <c r="I495" t="n">
+        <v>405.2944444444445</v>
+      </c>
+      <c r="J495" t="n">
+        <v>409.4944444444445</v>
+      </c>
+      <c r="K495" t="n">
+        <v>410.6</v>
+      </c>
+      <c r="L495" t="n">
+        <v>400.9242857142857</v>
+      </c>
+      <c r="M495" t="n">
+        <v>391.2266666666666</v>
+      </c>
+      <c r="N495" t="n">
+        <v>408.99</v>
+      </c>
+      <c r="O495" t="n">
+        <v>396.38</v>
+      </c>
+      <c r="P495" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:19:03+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>410.2266666666667</v>
+      </c>
+      <c r="C496" t="n">
+        <v>440.34</v>
+      </c>
+      <c r="D496" t="n">
+        <v>422.49</v>
+      </c>
+      <c r="E496" t="n">
+        <v>421.24</v>
+      </c>
+      <c r="F496" t="n">
+        <v>416.38</v>
+      </c>
+      <c r="G496" t="n">
+        <v>414.69</v>
+      </c>
+      <c r="H496" t="n">
+        <v>411.7888888888889</v>
+      </c>
+      <c r="I496" t="n">
+        <v>413.6688888888889</v>
+      </c>
+      <c r="J496" t="n">
+        <v>410.5888888888889</v>
+      </c>
+      <c r="K496" t="n">
+        <v>396.99</v>
+      </c>
+      <c r="L496" t="n">
+        <v>382.8514285714285</v>
+      </c>
+      <c r="M496" t="n">
+        <v>388.1333333333333</v>
+      </c>
+      <c r="N496" t="n">
+        <v>399.54</v>
+      </c>
+      <c r="O496" t="n">
+        <v>405.91</v>
+      </c>
+      <c r="P496" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -24961,7 +25155,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B518"/>
+  <dimension ref="A1:B522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30149,6 +30343,46 @@
       </c>
       <c r="B518" t="n">
         <v>0.35</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>
@@ -30322,28 +30556,28 @@
         <v>0.0646</v>
       </c>
       <c r="I2" t="n">
-        <v>1.10905916416874</v>
+        <v>1.096175993942166</v>
       </c>
       <c r="J2" t="n">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="K2" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1277741655701281</v>
+        <v>0.1260306891752463</v>
       </c>
       <c r="M2" t="n">
-        <v>16.050620770669</v>
+        <v>16.00886903725857</v>
       </c>
       <c r="N2" t="n">
-        <v>452.8558613280227</v>
+        <v>451.3689159349042</v>
       </c>
       <c r="O2" t="n">
-        <v>21.28041027160949</v>
+        <v>21.24544459254511</v>
       </c>
       <c r="P2" t="n">
-        <v>399.12799810968</v>
+        <v>399.2641983431811</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30400,28 +30634,28 @@
         <v>0.0536</v>
       </c>
       <c r="I3" t="n">
-        <v>1.071999891596334</v>
+        <v>1.105259916058531</v>
       </c>
       <c r="J3" t="n">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="K3" t="n">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1305018535886499</v>
+        <v>0.1367412112209546</v>
       </c>
       <c r="M3" t="n">
-        <v>15.34757209726563</v>
+        <v>15.48822963500471</v>
       </c>
       <c r="N3" t="n">
-        <v>390.6767320943345</v>
+        <v>395.0208688377793</v>
       </c>
       <c r="O3" t="n">
-        <v>19.76554406269492</v>
+        <v>19.87513192000947</v>
       </c>
       <c r="P3" t="n">
-        <v>380.178954114054</v>
+        <v>379.8124986706126</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30478,28 +30712,28 @@
         <v>0.0554</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01180048300913328</v>
+        <v>0.04399299080277043</v>
       </c>
       <c r="J4" t="n">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="K4" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L4" t="n">
-        <v>4.526778891500438e-05</v>
+        <v>0.0006105295661308352</v>
       </c>
       <c r="M4" t="n">
-        <v>9.91081373907681</v>
+        <v>10.06176757483568</v>
       </c>
       <c r="N4" t="n">
-        <v>159.9048130631081</v>
+        <v>165.3116261757473</v>
       </c>
       <c r="O4" t="n">
-        <v>12.64534748684702</v>
+        <v>12.85735688918011</v>
       </c>
       <c r="P4" t="n">
-        <v>387.9813896777577</v>
+        <v>387.6315330426022</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30556,28 +30790,28 @@
         <v>0.054</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3629275882441099</v>
+        <v>-0.3314330874928485</v>
       </c>
       <c r="J5" t="n">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="K5" t="n">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04752885956141417</v>
+        <v>0.03863179465023747</v>
       </c>
       <c r="M5" t="n">
-        <v>8.963339941949258</v>
+        <v>9.112043391621434</v>
       </c>
       <c r="N5" t="n">
-        <v>136.2311097600032</v>
+        <v>141.6056681883482</v>
       </c>
       <c r="O5" t="n">
-        <v>11.67180833290211</v>
+        <v>11.89981798971515</v>
       </c>
       <c r="P5" t="n">
-        <v>392.0947730997772</v>
+        <v>391.7506094240675</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30634,28 +30868,28 @@
         <v>0.0523</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5384721916450493</v>
+        <v>-0.5053643640171707</v>
       </c>
       <c r="J6" t="n">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="K6" t="n">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09515819537000014</v>
+        <v>0.08184861686405931</v>
       </c>
       <c r="M6" t="n">
-        <v>9.347256529866469</v>
+        <v>9.494529888923669</v>
       </c>
       <c r="N6" t="n">
-        <v>140.8608901975283</v>
+        <v>146.9001499095372</v>
       </c>
       <c r="O6" t="n">
-        <v>11.86848306219158</v>
+        <v>12.12023720516794</v>
       </c>
       <c r="P6" t="n">
-        <v>393.8700204851962</v>
+        <v>393.5059244534495</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30712,28 +30946,28 @@
         <v>0.0513</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.5097893600639293</v>
+        <v>-0.4660563453471427</v>
       </c>
       <c r="J7" t="n">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="K7" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="L7" t="n">
-        <v>0.08655704229963723</v>
+        <v>0.07047949969343059</v>
       </c>
       <c r="M7" t="n">
-        <v>9.442911892635061</v>
+        <v>9.619499009090374</v>
       </c>
       <c r="N7" t="n">
-        <v>139.6507437958929</v>
+        <v>146.6358817877625</v>
       </c>
       <c r="O7" t="n">
-        <v>11.81739158172788</v>
+        <v>12.10933036083179</v>
       </c>
       <c r="P7" t="n">
-        <v>392.2129077967976</v>
+        <v>391.7306933108523</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -30790,28 +31024,28 @@
         <v>0.0461</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4588320783256718</v>
+        <v>-0.4218924306869091</v>
       </c>
       <c r="J8" t="n">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="K8" t="n">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06424663475694203</v>
+        <v>0.05356171101208895</v>
       </c>
       <c r="M8" t="n">
-        <v>9.997835806104293</v>
+        <v>10.13887970681706</v>
       </c>
       <c r="N8" t="n">
-        <v>156.1186842674916</v>
+        <v>160.9522505731385</v>
       </c>
       <c r="O8" t="n">
-        <v>12.49474626663109</v>
+        <v>12.68669580990805</v>
       </c>
       <c r="P8" t="n">
-        <v>393.5552388808236</v>
+        <v>393.1474769177593</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -30868,28 +31102,28 @@
         <v>0.0454</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5653097209258751</v>
+        <v>-0.5306789018940049</v>
       </c>
       <c r="J9" t="n">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="K9" t="n">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0928524610532615</v>
+        <v>0.08191153281171604</v>
       </c>
       <c r="M9" t="n">
-        <v>10.04855556120741</v>
+        <v>10.15965636908533</v>
       </c>
       <c r="N9" t="n">
-        <v>158.5139849198325</v>
+        <v>161.3276789681066</v>
       </c>
       <c r="O9" t="n">
-        <v>12.59023371188289</v>
+        <v>12.70148333731563</v>
       </c>
       <c r="P9" t="n">
-        <v>397.2127834773283</v>
+        <v>396.8298510735259</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -30946,28 +31180,28 @@
         <v>0.0464</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.609404111954524</v>
+        <v>-0.5699041961013614</v>
       </c>
       <c r="J10" t="n">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="K10" t="n">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L10" t="n">
-        <v>0.09928696901244705</v>
+        <v>0.08670516364623093</v>
       </c>
       <c r="M10" t="n">
-        <v>10.24084214959471</v>
+        <v>10.36390591542873</v>
       </c>
       <c r="N10" t="n">
-        <v>170.5826932202156</v>
+        <v>174.4020163008112</v>
       </c>
       <c r="O10" t="n">
-        <v>13.06073096041013</v>
+        <v>13.20613555514297</v>
       </c>
       <c r="P10" t="n">
-        <v>395.5703953210417</v>
+        <v>395.1333892250717</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31024,28 +31258,28 @@
         <v>0.0521</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.6939221887642141</v>
+        <v>-0.6465717986611274</v>
       </c>
       <c r="J11" t="n">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="K11" t="n">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="L11" t="n">
-        <v>0.09877162802956907</v>
+        <v>0.08554423661500477</v>
       </c>
       <c r="M11" t="n">
-        <v>11.628430112496</v>
+        <v>11.80085109063378</v>
       </c>
       <c r="N11" t="n">
-        <v>226.1045535464294</v>
+        <v>231.6126461775374</v>
       </c>
       <c r="O11" t="n">
-        <v>15.03677337550943</v>
+        <v>15.21882538757632</v>
       </c>
       <c r="P11" t="n">
-        <v>392.5587609856083</v>
+        <v>392.0429146193135</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31102,28 +31336,28 @@
         <v>0.0781</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.5924221179911869</v>
+        <v>-0.5330855122398744</v>
       </c>
       <c r="J12" t="n">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="K12" t="n">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="L12" t="n">
-        <v>0.08197668670614522</v>
+        <v>0.0648137704978039</v>
       </c>
       <c r="M12" t="n">
-        <v>10.38471791425566</v>
+        <v>10.61490778531613</v>
       </c>
       <c r="N12" t="n">
-        <v>199.682002170885</v>
+        <v>210.2149457524424</v>
       </c>
       <c r="O12" t="n">
-        <v>14.13088823007545</v>
+        <v>14.49879118245526</v>
       </c>
       <c r="P12" t="n">
-        <v>386.5354437715002</v>
+        <v>385.8840842504093</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31180,28 +31414,28 @@
         <v>0.0823</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2427408000659506</v>
+        <v>-0.2341567033918297</v>
       </c>
       <c r="J13" t="n">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="K13" t="n">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01891912231105275</v>
+        <v>0.0177807288755083</v>
       </c>
       <c r="M13" t="n">
-        <v>9.3703871332318</v>
+        <v>9.383851430066771</v>
       </c>
       <c r="N13" t="n">
-        <v>156.5998995301789</v>
+        <v>156.3827699640775</v>
       </c>
       <c r="O13" t="n">
-        <v>12.51398815446854</v>
+        <v>12.50530967085892</v>
       </c>
       <c r="P13" t="n">
-        <v>382.3850155273923</v>
+        <v>382.2914184292331</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31258,28 +31492,28 @@
         <v>0.0531</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.116407249816835</v>
+        <v>-0.08913967697414202</v>
       </c>
       <c r="J14" t="n">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="K14" t="n">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00349870609614733</v>
+        <v>0.002053888792310388</v>
       </c>
       <c r="M14" t="n">
-        <v>10.53960957143899</v>
+        <v>10.59692892512391</v>
       </c>
       <c r="N14" t="n">
-        <v>201.6740241033556</v>
+        <v>203.09724228927</v>
       </c>
       <c r="O14" t="n">
-        <v>14.20119798127453</v>
+        <v>14.25121897555679</v>
       </c>
       <c r="P14" t="n">
-        <v>386.0061400797854</v>
+        <v>385.7108671551866</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31336,28 +31570,28 @@
         <v>0.0436</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.04828154589626051</v>
+        <v>-0.04188297980936931</v>
       </c>
       <c r="J15" t="n">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="K15" t="n">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0005451044681528128</v>
+        <v>0.0004156659888360226</v>
       </c>
       <c r="M15" t="n">
-        <v>11.55897950624615</v>
+        <v>11.51420304384317</v>
       </c>
       <c r="N15" t="n">
-        <v>218.0695321132304</v>
+        <v>216.6385666209342</v>
       </c>
       <c r="O15" t="n">
-        <v>14.76717752697618</v>
+        <v>14.71864690183626</v>
       </c>
       <c r="P15" t="n">
-        <v>392.0786343860958</v>
+        <v>392.0075527682608</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -31395,7 +31629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P492"/>
+  <dimension ref="A1:P496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67561,7 +67795,11 @@
           <t>-40.7233180683732,172.3199743741761</t>
         </is>
       </c>
-      <c r="L492" t="inlineStr"/>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>-40.7228986828597,172.32072428077083</t>
+        </is>
+      </c>
       <c r="M492" t="inlineStr">
         <is>
           <t>-40.72244454087372,172.32141586086553</t>
@@ -67578,6 +67816,286 @@
         </is>
       </c>
       <c r="P492" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:12:43+00:00</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr"/>
+      <c r="C493" t="inlineStr"/>
+      <c r="D493" t="inlineStr"/>
+      <c r="E493" t="inlineStr"/>
+      <c r="F493" t="inlineStr"/>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>-40.72550191050267,172.31784375434975</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>-40.72498906140142,172.31843369518347</t>
+        </is>
+      </c>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>-40.72448693591841,172.3190429675923</t>
+        </is>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>-40.72395061412823,172.3195898129256</t>
+        </is>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>-40.72344169675478,172.32018234375565</t>
+        </is>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>-40.72298222167952,172.32086484577658</t>
+        </is>
+      </c>
+      <c r="M493" t="inlineStr">
+        <is>
+          <t>-40.72244145390459,172.32141066662103</t>
+        </is>
+      </c>
+      <c r="N493" t="inlineStr">
+        <is>
+          <t>-40.72187078779942,172.321940226465</t>
+        </is>
+      </c>
+      <c r="O493" t="inlineStr">
+        <is>
+          <t>-40.72135884242786,172.32255214798022</t>
+        </is>
+      </c>
+      <c r="P493" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-30 22:12:43+00:00</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr"/>
+      <c r="C494" t="inlineStr"/>
+      <c r="D494" t="inlineStr"/>
+      <c r="E494" t="inlineStr"/>
+      <c r="F494" t="inlineStr"/>
+      <c r="G494" t="inlineStr"/>
+      <c r="H494" t="inlineStr"/>
+      <c r="I494" t="inlineStr">
+        <is>
+          <t>-40.72450038386995,172.3190649155779</t>
+        </is>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>-40.72398510360155,172.319646952098</t>
+        </is>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>-40.72336016529312,172.32004519011048</t>
+        </is>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>-40.722686147295875,172.32036666472348</t>
+        </is>
+      </c>
+      <c r="M494" t="inlineStr">
+        <is>
+          <t>-40.72253289833489,172.32156453465478</t>
+        </is>
+      </c>
+      <c r="N494" t="inlineStr">
+        <is>
+          <t>-40.72174560996865,172.32175143868554</t>
+        </is>
+      </c>
+      <c r="O494" t="inlineStr">
+        <is>
+          <t>-40.72134427736938,172.3225324483586</t>
+        </is>
+      </c>
+      <c r="P494" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-07 22:18:55+00:00</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>-40.72797888559315,172.3148098644013</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>-40.7273098856888,172.31517016580517</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>-40.72692416216646,172.31594863961246</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>-40.72647649016695,172.31663567288842</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>-40.72595096207927,172.3171800268688</t>
+        </is>
+      </c>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>-40.72544862466268,172.31775709813834</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>-40.724916591386474,172.3183154196642</t>
+        </is>
+      </c>
+      <c r="I495" t="inlineStr">
+        <is>
+          <t>-40.72444740820871,172.3189784557307</t>
+        </is>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>-40.72389453756903,172.31949691036436</t>
+        </is>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>-40.723353176874625,172.32003343409934</t>
+        </is>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>-40.72286849159537,172.32067348017122</t>
+        </is>
+      </c>
+      <c r="M495" t="inlineStr">
+        <is>
+          <t>-40.72238387356982,172.32131378005275</t>
+        </is>
+      </c>
+      <c r="N495" t="inlineStr">
+        <is>
+          <t>-40.721725427604184,172.3217210006276</t>
+        </is>
+      </c>
+      <c r="O495" t="inlineStr">
+        <is>
+          <t>-40.72129819651587,172.32247012288823</t>
+        </is>
+      </c>
+      <c r="P495" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-23 22:19:03+00:00</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>-40.72803613685668,172.31489437787337</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>-40.72734529074852,172.31522242987953</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>-40.7269417747099,172.31597463899914</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>-40.72643880912153,172.316580048486</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>-40.72596764817661,172.31720582985005</t>
+        </is>
+      </c>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>-40.72545779821254,172.31777201662607</t>
+        </is>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>-40.72494284082706,172.3183582603125</t>
+        </is>
+      </c>
+      <c r="I496" t="inlineStr">
+        <is>
+          <t>-40.7244000891738,172.31890122808343</t>
+        </is>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>-40.72388840982871,172.31948675849642</t>
+        </is>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>-40.723428662824475,172.32016041781023</t>
+        </is>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>-40.722968714465985,172.32084211807754</t>
+        </is>
+      </c>
+      <c r="M496" t="inlineStr">
+        <is>
+          <t>-40.722401027527084,172.3213426438347</t>
+        </is>
+      </c>
+      <c r="N496" t="inlineStr">
+        <is>
+          <t>-40.72178135818413,172.32180535247556</t>
+        </is>
+      </c>
+      <c r="O496" t="inlineStr">
+        <is>
+          <t>-40.72123836669311,172.32238920179952</t>
+        </is>
+      </c>
+      <c r="P496" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0317/nzd0317.xlsx
+++ b/data/nzd0317/nzd0317.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P496"/>
+  <dimension ref="A1:P502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25144,6 +25144,292 @@
         </is>
       </c>
     </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:12:53+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>417.7766666666667</v>
+      </c>
+      <c r="C497" t="n">
+        <v>446.9</v>
+      </c>
+      <c r="D497" t="n">
+        <v>436.87</v>
+      </c>
+      <c r="E497" t="n">
+        <v>424.98</v>
+      </c>
+      <c r="F497" t="n">
+        <v>419.74</v>
+      </c>
+      <c r="G497" t="n">
+        <v>425.54</v>
+      </c>
+      <c r="H497" t="n">
+        <v>422.6588888888889</v>
+      </c>
+      <c r="I497" t="n">
+        <v>417.8288888888889</v>
+      </c>
+      <c r="J497" t="n">
+        <v>414.3888888888889</v>
+      </c>
+      <c r="K497" t="n">
+        <v>399.16</v>
+      </c>
+      <c r="L497" t="n">
+        <v>385.3828571428572</v>
+      </c>
+      <c r="M497" t="n">
+        <v>392.0733333333333</v>
+      </c>
+      <c r="N497" t="n">
+        <v>403.64</v>
+      </c>
+      <c r="O497" t="n">
+        <v>407.74</v>
+      </c>
+      <c r="P497" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:12:54+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr"/>
+      <c r="C498" t="n">
+        <v>455.19</v>
+      </c>
+      <c r="D498" t="n">
+        <v>437.44</v>
+      </c>
+      <c r="E498" t="n">
+        <v>405.23</v>
+      </c>
+      <c r="F498" t="n">
+        <v>413.04</v>
+      </c>
+      <c r="G498" t="n">
+        <v>404.94</v>
+      </c>
+      <c r="H498" t="n">
+        <v>398.2833333333333</v>
+      </c>
+      <c r="I498" t="n">
+        <v>400.8433333333333</v>
+      </c>
+      <c r="J498" t="n">
+        <v>395.7933333333333</v>
+      </c>
+      <c r="K498" t="n">
+        <v>397.04</v>
+      </c>
+      <c r="L498" t="n">
+        <v>380.8</v>
+      </c>
+      <c r="M498" t="n">
+        <v>376.23</v>
+      </c>
+      <c r="N498" t="n">
+        <v>391.64</v>
+      </c>
+      <c r="O498" t="n">
+        <v>395.13</v>
+      </c>
+      <c r="P498" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:19:12+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>394.3466666666667</v>
+      </c>
+      <c r="C499" t="n">
+        <v>424.14</v>
+      </c>
+      <c r="D499" t="n">
+        <v>415.03</v>
+      </c>
+      <c r="E499" t="n">
+        <v>405.07</v>
+      </c>
+      <c r="F499" t="n">
+        <v>402.47</v>
+      </c>
+      <c r="G499" t="n">
+        <v>392.35</v>
+      </c>
+      <c r="H499" t="n">
+        <v>388.7022222222223</v>
+      </c>
+      <c r="I499" t="n">
+        <v>394.4122222222222</v>
+      </c>
+      <c r="J499" t="n">
+        <v>394.1322222222223</v>
+      </c>
+      <c r="K499" t="inlineStr"/>
+      <c r="L499" t="inlineStr"/>
+      <c r="M499" t="inlineStr"/>
+      <c r="N499" t="inlineStr"/>
+      <c r="O499" t="inlineStr"/>
+      <c r="P499" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:13:01+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>400.4133333333333</v>
+      </c>
+      <c r="C500" t="n">
+        <v>423.74</v>
+      </c>
+      <c r="D500" t="n">
+        <v>417.91</v>
+      </c>
+      <c r="E500" t="n">
+        <v>404.56</v>
+      </c>
+      <c r="F500" t="n">
+        <v>398.38</v>
+      </c>
+      <c r="G500" t="n">
+        <v>396.75</v>
+      </c>
+      <c r="H500" t="n">
+        <v>400.6644444444445</v>
+      </c>
+      <c r="I500" t="n">
+        <v>396.1744444444445</v>
+      </c>
+      <c r="J500" t="n">
+        <v>390.1144444444445</v>
+      </c>
+      <c r="K500" t="n">
+        <v>384.93</v>
+      </c>
+      <c r="L500" t="n">
+        <v>377.0171428571429</v>
+      </c>
+      <c r="M500" t="n">
+        <v>383.2366666666667</v>
+      </c>
+      <c r="N500" t="n">
+        <v>391.21</v>
+      </c>
+      <c r="O500" t="n">
+        <v>401.44</v>
+      </c>
+      <c r="P500" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:19:14+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr"/>
+      <c r="C501" t="n">
+        <v>472.99</v>
+      </c>
+      <c r="D501" t="n">
+        <v>452.46</v>
+      </c>
+      <c r="E501" t="n">
+        <v>368.7</v>
+      </c>
+      <c r="F501" t="inlineStr"/>
+      <c r="G501" t="n">
+        <v>411.63</v>
+      </c>
+      <c r="H501" t="n">
+        <v>373.3355555555555</v>
+      </c>
+      <c r="I501" t="n">
+        <v>357.9255555555555</v>
+      </c>
+      <c r="J501" t="n">
+        <v>352.5255555555556</v>
+      </c>
+      <c r="K501" t="inlineStr"/>
+      <c r="L501" t="inlineStr"/>
+      <c r="M501" t="inlineStr"/>
+      <c r="N501" t="inlineStr"/>
+      <c r="O501" t="inlineStr"/>
+      <c r="P501" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:19:18+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>415.5466666666667</v>
+      </c>
+      <c r="C502" t="n">
+        <v>442.23</v>
+      </c>
+      <c r="D502" t="n">
+        <v>420.99</v>
+      </c>
+      <c r="E502" t="inlineStr"/>
+      <c r="F502" t="n">
+        <v>418.54</v>
+      </c>
+      <c r="G502" t="n">
+        <v>418.64</v>
+      </c>
+      <c r="H502" t="inlineStr"/>
+      <c r="I502" t="inlineStr"/>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="n">
+        <v>404.22</v>
+      </c>
+      <c r="L502" t="n">
+        <v>382.8114285714286</v>
+      </c>
+      <c r="M502" t="n">
+        <v>391.5833333333333</v>
+      </c>
+      <c r="N502" t="inlineStr"/>
+      <c r="O502" t="inlineStr"/>
+      <c r="P502" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25155,7 +25441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B522"/>
+  <dimension ref="A1:B528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30382,6 +30668,66 @@
         </is>
       </c>
       <c r="B522" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>-0.84</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>-1.1</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
         <v>1.3</v>
       </c>
     </row>
@@ -30556,28 +30902,28 @@
         <v>0.0646</v>
       </c>
       <c r="I2" t="n">
-        <v>1.096175993942166</v>
+        <v>1.055629307143791</v>
       </c>
       <c r="J2" t="n">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="K2" t="n">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1260306891752463</v>
+        <v>0.1186809896796268</v>
       </c>
       <c r="M2" t="n">
-        <v>16.00886903725857</v>
+        <v>15.98249622557664</v>
       </c>
       <c r="N2" t="n">
-        <v>451.3689159349042</v>
+        <v>452.0520602687021</v>
       </c>
       <c r="O2" t="n">
-        <v>21.24544459254511</v>
+        <v>21.26151594474632</v>
       </c>
       <c r="P2" t="n">
-        <v>399.2641983431811</v>
+        <v>399.6942228550132</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30634,28 +30980,28 @@
         <v>0.0536</v>
       </c>
       <c r="I3" t="n">
-        <v>1.105259916058531</v>
+        <v>1.202606520555829</v>
       </c>
       <c r="J3" t="n">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="K3" t="n">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1367412112209546</v>
+        <v>0.1538465786157215</v>
       </c>
       <c r="M3" t="n">
-        <v>15.48822963500471</v>
+        <v>15.89411330257694</v>
       </c>
       <c r="N3" t="n">
-        <v>395.0208688377793</v>
+        <v>411.9753466496563</v>
       </c>
       <c r="O3" t="n">
-        <v>19.87513192000947</v>
+        <v>20.29717582940189</v>
       </c>
       <c r="P3" t="n">
-        <v>379.8124986706126</v>
+        <v>378.7360735448279</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -30712,28 +31058,28 @@
         <v>0.0554</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04399299080277043</v>
+        <v>0.1522582871417489</v>
       </c>
       <c r="J4" t="n">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="K4" t="n">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0006105295661308352</v>
+        <v>0.006415786779447874</v>
       </c>
       <c r="M4" t="n">
-        <v>10.06176757483568</v>
+        <v>10.62904568772277</v>
       </c>
       <c r="N4" t="n">
-        <v>165.3116261757473</v>
+        <v>189.3846258498976</v>
       </c>
       <c r="O4" t="n">
-        <v>12.85735688918011</v>
+        <v>13.76170868206044</v>
       </c>
       <c r="P4" t="n">
-        <v>387.6315330426022</v>
+        <v>386.4508641124568</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -30790,28 +31136,28 @@
         <v>0.054</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.3314330874928485</v>
+        <v>-0.2913355817197474</v>
       </c>
       <c r="J5" t="n">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="K5" t="n">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="L5" t="n">
-        <v>0.03863179465023747</v>
+        <v>0.02912573181690969</v>
       </c>
       <c r="M5" t="n">
-        <v>9.112043391621434</v>
+        <v>9.320472947278649</v>
       </c>
       <c r="N5" t="n">
-        <v>141.6056681883482</v>
+        <v>147.8730289644399</v>
       </c>
       <c r="O5" t="n">
-        <v>11.89981798971515</v>
+        <v>12.16030546345115</v>
       </c>
       <c r="P5" t="n">
-        <v>391.7506094240675</v>
+        <v>391.3115829070246</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -30868,28 +31214,28 @@
         <v>0.0523</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.5053643640171707</v>
+        <v>-0.4413823497545987</v>
       </c>
       <c r="J6" t="n">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="K6" t="n">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08184861686405931</v>
+        <v>0.06058791456681112</v>
       </c>
       <c r="M6" t="n">
-        <v>9.494529888923669</v>
+        <v>9.767204266226017</v>
       </c>
       <c r="N6" t="n">
-        <v>146.9001499095372</v>
+        <v>156.2516873744781</v>
       </c>
       <c r="O6" t="n">
-        <v>12.12023720516794</v>
+        <v>12.5000674947969</v>
       </c>
       <c r="P6" t="n">
-        <v>393.5059244534495</v>
+        <v>392.8000094860038</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -30946,28 +31292,28 @@
         <v>0.0513</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.4660563453471427</v>
+        <v>-0.3935933642215471</v>
       </c>
       <c r="J7" t="n">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="K7" t="n">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07047949969343059</v>
+        <v>0.04838596083275237</v>
       </c>
       <c r="M7" t="n">
-        <v>9.619499009090374</v>
+        <v>9.903197679794909</v>
       </c>
       <c r="N7" t="n">
-        <v>146.6358817877625</v>
+        <v>157.5493381267167</v>
       </c>
       <c r="O7" t="n">
-        <v>12.10933036083179</v>
+        <v>12.5518659221136</v>
       </c>
       <c r="P7" t="n">
-        <v>391.7306933108523</v>
+        <v>390.9281951689322</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31024,28 +31370,28 @@
         <v>0.0461</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.4218924306869091</v>
+        <v>-0.391754301516557</v>
       </c>
       <c r="J8" t="n">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="K8" t="n">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="L8" t="n">
-        <v>0.05356171101208895</v>
+        <v>0.04594452186318365</v>
       </c>
       <c r="M8" t="n">
-        <v>10.13887970681706</v>
+        <v>10.23544017153865</v>
       </c>
       <c r="N8" t="n">
-        <v>160.9522505731385</v>
+        <v>164.4431634371221</v>
       </c>
       <c r="O8" t="n">
-        <v>12.68669580990805</v>
+        <v>12.82353942705064</v>
       </c>
       <c r="P8" t="n">
-        <v>393.1474769177593</v>
+        <v>392.8138681795065</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31102,28 +31448,28 @@
         <v>0.0454</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5306789018940049</v>
+        <v>-0.5095565715750996</v>
       </c>
       <c r="J9" t="n">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="K9" t="n">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08191153281171604</v>
+        <v>0.07498867763079153</v>
       </c>
       <c r="M9" t="n">
-        <v>10.15965636908533</v>
+        <v>10.28376603966105</v>
       </c>
       <c r="N9" t="n">
-        <v>161.3276789681066</v>
+        <v>165.0214809638152</v>
       </c>
       <c r="O9" t="n">
-        <v>12.70148333731563</v>
+        <v>12.84606869683543</v>
       </c>
       <c r="P9" t="n">
-        <v>396.8298510735259</v>
+        <v>396.5958351176906</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31180,28 +31526,28 @@
         <v>0.0464</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5699041961013614</v>
+        <v>-0.5513460546336418</v>
       </c>
       <c r="J10" t="n">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="K10" t="n">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="L10" t="n">
-        <v>0.08670516364623093</v>
+        <v>0.08070516282875662</v>
       </c>
       <c r="M10" t="n">
-        <v>10.36390591542873</v>
+        <v>10.47858835308835</v>
       </c>
       <c r="N10" t="n">
-        <v>174.4020163008112</v>
+        <v>177.9706808158193</v>
       </c>
       <c r="O10" t="n">
-        <v>13.20613555514297</v>
+        <v>13.34056523599429</v>
       </c>
       <c r="P10" t="n">
-        <v>395.1333892250717</v>
+        <v>394.9277173743419</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31258,28 +31604,28 @@
         <v>0.0521</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.6465717986611274</v>
+        <v>-0.6118323230396099</v>
       </c>
       <c r="J11" t="n">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="K11" t="n">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08554423661500477</v>
+        <v>0.07708623852231156</v>
       </c>
       <c r="M11" t="n">
-        <v>11.80085109063378</v>
+        <v>11.90782467598149</v>
       </c>
       <c r="N11" t="n">
-        <v>231.6126461775374</v>
+        <v>233.885192181894</v>
       </c>
       <c r="O11" t="n">
-        <v>15.21882538757632</v>
+        <v>15.2933054694495</v>
       </c>
       <c r="P11" t="n">
-        <v>392.0429146193135</v>
+        <v>391.6626667698146</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31336,28 +31682,28 @@
         <v>0.0781</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.5330855122398744</v>
+        <v>-0.5169998233474191</v>
       </c>
       <c r="J12" t="n">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="K12" t="n">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0648137704978039</v>
+        <v>0.06189436429270734</v>
       </c>
       <c r="M12" t="n">
-        <v>10.61490778531613</v>
+        <v>10.61550460605219</v>
       </c>
       <c r="N12" t="n">
-        <v>210.2149457524424</v>
+        <v>209.1560647658198</v>
       </c>
       <c r="O12" t="n">
-        <v>14.49879118245526</v>
+        <v>14.46222890033966</v>
       </c>
       <c r="P12" t="n">
-        <v>385.8840842504093</v>
+        <v>385.7065855370647</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31414,28 +31760,28 @@
         <v>0.0823</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2341567033918297</v>
+        <v>-0.2181464632285141</v>
       </c>
       <c r="J13" t="n">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="K13" t="n">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0177807288755083</v>
+        <v>0.01560072585384475</v>
       </c>
       <c r="M13" t="n">
-        <v>9.383851430066771</v>
+        <v>9.385482784819322</v>
       </c>
       <c r="N13" t="n">
-        <v>156.3827699640775</v>
+        <v>156.1612274284923</v>
       </c>
       <c r="O13" t="n">
-        <v>12.50530967085892</v>
+        <v>12.49644859263992</v>
       </c>
       <c r="P13" t="n">
-        <v>382.2914184292331</v>
+        <v>382.1163083916944</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31492,28 +31838,28 @@
         <v>0.0531</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.08913967697414202</v>
+        <v>-0.07445511019230618</v>
       </c>
       <c r="J14" t="n">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="K14" t="n">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002053888792310388</v>
+        <v>0.001442126440106106</v>
       </c>
       <c r="M14" t="n">
-        <v>10.59692892512391</v>
+        <v>10.60940390842841</v>
       </c>
       <c r="N14" t="n">
-        <v>203.09724228927</v>
+        <v>202.9198551545635</v>
       </c>
       <c r="O14" t="n">
-        <v>14.25121897555679</v>
+        <v>14.24499403841797</v>
       </c>
       <c r="P14" t="n">
-        <v>385.7108671551866</v>
+        <v>385.5513650267168</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31570,28 +31916,28 @@
         <v>0.0436</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.04188297980936931</v>
+        <v>-0.02843166137554124</v>
       </c>
       <c r="J15" t="n">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="K15" t="n">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0004156659888360226</v>
+        <v>0.0001930270834804571</v>
       </c>
       <c r="M15" t="n">
-        <v>11.51420304384317</v>
+        <v>11.51202662543631</v>
       </c>
       <c r="N15" t="n">
-        <v>216.6385666209342</v>
+        <v>216.0538504984588</v>
       </c>
       <c r="O15" t="n">
-        <v>14.71864690183626</v>
+        <v>14.69877037368973</v>
       </c>
       <c r="P15" t="n">
-        <v>392.0075527682608</v>
+        <v>391.8580793728403</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -31629,7 +31975,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P496"/>
+  <dimension ref="A1:P502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68101,6 +68447,422 @@
         </is>
       </c>
     </row>
+    <row r="497">
+      <c r="A497" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:12:53+00:00</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>-40.72799090696574,172.31482761015494</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>-40.72730599172988,172.3151644176447</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>-40.726855628949096,172.31584747206153</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>-40.72641640416302,172.31654697454678</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>-40.7259480449288,172.31717551585942</t>
+        </is>
+      </c>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>-40.72539635804292,172.31767209967234</t>
+        </is>
+      </c>
+      <c r="H497" t="inlineStr">
+        <is>
+          <t>-40.72488142050169,172.31825801878153</t>
+        </is>
+      </c>
+      <c r="I497" t="inlineStr">
+        <is>
+          <t>-40.724376583453996,172.31886286533904</t>
+        </is>
+      </c>
+      <c r="J497" t="inlineStr">
+        <is>
+          <t>-40.72386713380975,172.319451510401</t>
+        </is>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>-40.723416627234094,172.32014017130658</t>
+        </is>
+      </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>-40.722954676465775,172.3208184972763</t>
+        </is>
+      </c>
+      <c r="M497" t="inlineStr">
+        <is>
+          <t>-40.722379178412154,172.32130587983917</t>
+        </is>
+      </c>
+      <c r="N497" t="inlineStr">
+        <is>
+          <t>-40.7217570920141,172.32176875536015</t>
+        </is>
+      </c>
+      <c r="O497" t="inlineStr">
+        <is>
+          <t>-40.72122687785398,172.3223736629292</t>
+        </is>
+      </c>
+      <c r="P497" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:12:54+00:00</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr"/>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>-40.727256328751885,172.31509110654935</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>-40.72685221426726,172.31584243137604</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>-40.72653471901166,172.3167216299582</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>-40.72598713473063,172.31723596341794</t>
+        </is>
+      </c>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>-40.725513009351765,172.3178618039075</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>-40.72501915309115,172.318482806804</t>
+        </is>
+      </c>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>-40.724472558785436,172.3190195031357</t>
+        </is>
+      </c>
+      <c r="J498" t="inlineStr">
+        <is>
+          <t>-40.723971249337765,172.31962399954094</t>
+        </is>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>-40.723428385506764,172.32015995130084</t>
+        </is>
+      </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>-40.72298009062971,172.32086125999822</t>
+        </is>
+      </c>
+      <c r="M498" t="inlineStr">
+        <is>
+          <t>-40.72246703692315,172.32145371354812</t>
+        </is>
+      </c>
+      <c r="N498" t="inlineStr">
+        <is>
+          <t>-40.72182811491843,172.3218758689438</t>
+        </is>
+      </c>
+      <c r="O498" t="inlineStr">
+        <is>
+          <t>-40.72130604407503,172.32248073689277</t>
+        </is>
+      </c>
+      <c r="P498" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-08 22:19:12+00:00</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>-40.72813126927065,172.31503481146262</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>-40.727442340030656,172.31536569209368</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>-40.72698646501516,172.3160406102936</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>-40.72653567751062,172.3167230448906</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>-40.72604880320501,172.31733132635213</t>
+        </is>
+      </c>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>-40.72558430240256,172.3179777448325</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>-40.725073290456194,172.31857116274796</t>
+        </is>
+      </c>
+      <c r="I499" t="inlineStr">
+        <is>
+          <t>-40.72450889713685,172.3190788098255</t>
+        </is>
+      </c>
+      <c r="J499" t="inlineStr">
+        <is>
+          <t>-40.723980549798235,172.319639407745</t>
+        </is>
+      </c>
+      <c r="K499" t="inlineStr"/>
+      <c r="L499" t="inlineStr"/>
+      <c r="M499" t="inlineStr"/>
+      <c r="N499" t="inlineStr"/>
+      <c r="O499" t="inlineStr"/>
+      <c r="P499" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:13:01+00:00</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>-40.7280949256732,172.3149811613036</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>-40.72744473630699,172.31536922943755</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>-40.72696921192586,172.3160151414724</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>-40.726538732725984,172.31672755498806</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>-40.7260726654414,172.317368226532</t>
+        </is>
+      </c>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>-40.72555938665527,172.31793722533885</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>-40.7250056987872,172.31846084848377</t>
+        </is>
+      </c>
+      <c r="I500" t="inlineStr">
+        <is>
+          <t>-40.72449893987908,172.31906255888438</t>
+        </is>
+      </c>
+      <c r="J500" t="inlineStr">
+        <is>
+          <t>-40.724003045084174,172.31967667603425</t>
+        </is>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>-40.72349555180179,172.32027293998695</t>
+        </is>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>-40.7230010683941,172.32089655793047</t>
+        </is>
+      </c>
+      <c r="M500" t="inlineStr">
+        <is>
+          <t>-40.7224281817832,172.32138833448545</t>
+        </is>
+      </c>
+      <c r="N500" t="inlineStr">
+        <is>
+          <t>-40.72183065990399,172.32187970718476</t>
+        </is>
+      </c>
+      <c r="O500" t="inlineStr">
+        <is>
+          <t>-40.72126642958655,172.3224271574233</t>
+        </is>
+      </c>
+      <c r="P500" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-16 22:19:14+00:00</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr"/>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>-40.72714969397505,172.31493369588108</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>-40.72676223432704,172.3157096050781</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>-40.72675355586215,172.31704467777686</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr"/>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>-40.72547512602368,172.31780019600296</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>-40.72516011853834,172.3187128727432</t>
+        </is>
+      </c>
+      <c r="I501" t="inlineStr">
+        <is>
+          <t>-40.724715060833596,172.31941528532042</t>
+        </is>
+      </c>
+      <c r="J501" t="inlineStr">
+        <is>
+          <t>-40.72421350233946,172.3200253460101</t>
+        </is>
+      </c>
+      <c r="K501" t="inlineStr"/>
+      <c r="L501" t="inlineStr"/>
+      <c r="M501" t="inlineStr"/>
+      <c r="N501" t="inlineStr"/>
+      <c r="O501" t="inlineStr"/>
+      <c r="P501" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-24 22:19:18+00:00</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>-40.72800426626201,172.3148473309418</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>-40.727333968320806,172.31520571598168</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>-40.72695076069921,172.31598790399764</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr"/>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>-40.72595504608963,172.3171863422826</t>
+        </is>
+      </c>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>-40.7254354306031,172.31773564130825</t>
+        </is>
+      </c>
+      <c r="H502" t="inlineStr"/>
+      <c r="I502" t="inlineStr"/>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>-40.72338856266409,172.32009296059368</t>
+        </is>
+      </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>-40.72296893628537,172.32084249131825</t>
+        </is>
+      </c>
+      <c r="M502" t="inlineStr">
+        <is>
+          <t>-40.7223818956885,172.32131045200987</t>
+        </is>
+      </c>
+      <c r="N502" t="inlineStr"/>
+      <c r="O502" t="inlineStr"/>
+      <c r="P502" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0317/nzd0317.xlsx
+++ b/data/nzd0317/nzd0317.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P502"/>
+  <dimension ref="A1:P504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25403,16 +25403,24 @@
       <c r="D502" t="n">
         <v>420.99</v>
       </c>
-      <c r="E502" t="inlineStr"/>
+      <c r="E502" t="n">
+        <v>416.84</v>
+      </c>
       <c r="F502" t="n">
         <v>418.54</v>
       </c>
       <c r="G502" t="n">
         <v>418.64</v>
       </c>
-      <c r="H502" t="inlineStr"/>
-      <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="H502" t="n">
+        <v>420.2688888888889</v>
+      </c>
+      <c r="I502" t="n">
+        <v>418.2488888888889</v>
+      </c>
+      <c r="J502" t="n">
+        <v>410.4288888888889</v>
+      </c>
       <c r="K502" t="n">
         <v>404.22</v>
       </c>
@@ -25425,6 +25433,114 @@
       <c r="N502" t="inlineStr"/>
       <c r="O502" t="inlineStr"/>
       <c r="P502" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:13:03+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>409.0733333333333</v>
+      </c>
+      <c r="C503" t="n">
+        <v>435.25</v>
+      </c>
+      <c r="D503" t="n">
+        <v>406.83</v>
+      </c>
+      <c r="E503" t="n">
+        <v>401.44</v>
+      </c>
+      <c r="F503" t="n">
+        <v>407.17</v>
+      </c>
+      <c r="G503" t="n">
+        <v>412.32</v>
+      </c>
+      <c r="H503" t="n">
+        <v>415.8911111111111</v>
+      </c>
+      <c r="I503" t="n">
+        <v>413.3311111111111</v>
+      </c>
+      <c r="J503" t="n">
+        <v>405.3011111111111</v>
+      </c>
+      <c r="K503" t="n">
+        <v>407.23</v>
+      </c>
+      <c r="L503" t="n">
+        <v>380.6257142857143</v>
+      </c>
+      <c r="M503" t="n">
+        <v>386.7666666666667</v>
+      </c>
+      <c r="N503" t="n">
+        <v>381.42</v>
+      </c>
+      <c r="O503" t="n">
+        <v>388.65</v>
+      </c>
+      <c r="P503" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:13:13+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>387.3533333333333</v>
+      </c>
+      <c r="C504" t="n">
+        <v>409.63</v>
+      </c>
+      <c r="D504" t="n">
+        <v>396.76</v>
+      </c>
+      <c r="E504" t="n">
+        <v>379.67</v>
+      </c>
+      <c r="F504" t="n">
+        <v>385.08</v>
+      </c>
+      <c r="G504" t="n">
+        <v>382.89</v>
+      </c>
+      <c r="H504" t="n">
+        <v>383.7744444444445</v>
+      </c>
+      <c r="I504" t="n">
+        <v>385.7344444444445</v>
+      </c>
+      <c r="J504" t="n">
+        <v>388.0544444444445</v>
+      </c>
+      <c r="K504" t="n">
+        <v>375.99</v>
+      </c>
+      <c r="L504" t="n">
+        <v>365.5757142857143</v>
+      </c>
+      <c r="M504" t="n">
+        <v>370.2066666666667</v>
+      </c>
+      <c r="N504" t="n">
+        <v>379.71</v>
+      </c>
+      <c r="O504" t="n">
+        <v>383.7</v>
+      </c>
+      <c r="P504" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -25441,7 +25557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B528"/>
+  <dimension ref="A1:B530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30729,6 +30845,26 @@
       </c>
       <c r="B528" t="n">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>0.65</v>
       </c>
     </row>
   </sheetData>
@@ -30902,28 +31038,28 @@
         <v>0.0646</v>
       </c>
       <c r="I2" t="n">
-        <v>1.055629307143791</v>
+        <v>1.027424135062195</v>
       </c>
       <c r="J2" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K2" t="n">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1186809896796268</v>
+        <v>0.1129487860825786</v>
       </c>
       <c r="M2" t="n">
-        <v>15.98249622557664</v>
+        <v>15.99962992522522</v>
       </c>
       <c r="N2" t="n">
-        <v>452.0520602687021</v>
+        <v>454.7448644249274</v>
       </c>
       <c r="O2" t="n">
-        <v>21.26151594474632</v>
+        <v>21.32474769897471</v>
       </c>
       <c r="P2" t="n">
-        <v>399.6942228550132</v>
+        <v>399.9947973433315</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -30980,28 +31116,28 @@
         <v>0.0536</v>
       </c>
       <c r="I3" t="n">
-        <v>1.202606520555829</v>
+        <v>1.213774560283631</v>
       </c>
       <c r="J3" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K3" t="n">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1538465786157215</v>
+        <v>0.1568918990187431</v>
       </c>
       <c r="M3" t="n">
-        <v>15.89411330257694</v>
+        <v>15.89226298966538</v>
       </c>
       <c r="N3" t="n">
-        <v>411.9753466496563</v>
+        <v>411.4992820623504</v>
       </c>
       <c r="O3" t="n">
-        <v>20.29717582940189</v>
+        <v>20.28544507922738</v>
       </c>
       <c r="P3" t="n">
-        <v>378.7360735448279</v>
+        <v>378.6123006809233</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31058,28 +31194,28 @@
         <v>0.0554</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1522582871417489</v>
+        <v>0.1621292945724573</v>
       </c>
       <c r="J4" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K4" t="n">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006415786779447874</v>
+        <v>0.007300379443826444</v>
       </c>
       <c r="M4" t="n">
-        <v>10.62904568772277</v>
+        <v>10.64358662223391</v>
       </c>
       <c r="N4" t="n">
-        <v>189.3846258498976</v>
+        <v>189.2099508829797</v>
       </c>
       <c r="O4" t="n">
-        <v>13.76170868206044</v>
+        <v>13.75536080526351</v>
       </c>
       <c r="P4" t="n">
-        <v>386.4508641124568</v>
+        <v>386.3428453579173</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31136,28 +31272,28 @@
         <v>0.054</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2913355817197474</v>
+        <v>-0.2713829865759491</v>
       </c>
       <c r="J5" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K5" t="n">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02912573181690969</v>
+        <v>0.02511818401640997</v>
       </c>
       <c r="M5" t="n">
-        <v>9.320472947278649</v>
+        <v>9.39916156377441</v>
       </c>
       <c r="N5" t="n">
-        <v>147.8730289644399</v>
+        <v>150.1720693797331</v>
       </c>
       <c r="O5" t="n">
-        <v>12.16030546345115</v>
+        <v>12.25447140352178</v>
       </c>
       <c r="P5" t="n">
-        <v>391.3115829070246</v>
+        <v>391.0923765175631</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31214,28 +31350,28 @@
         <v>0.0523</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.4413823497545987</v>
+        <v>-0.428844660066026</v>
       </c>
       <c r="J6" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K6" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06058791456681112</v>
+        <v>0.05728331999403757</v>
       </c>
       <c r="M6" t="n">
-        <v>9.767204266226017</v>
+        <v>9.799606485692379</v>
       </c>
       <c r="N6" t="n">
-        <v>156.2516873744781</v>
+        <v>157.0987770142124</v>
       </c>
       <c r="O6" t="n">
-        <v>12.5000674947969</v>
+        <v>12.53390509834076</v>
       </c>
       <c r="P6" t="n">
-        <v>392.8000094860038</v>
+        <v>392.6612599283742</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31292,28 +31428,28 @@
         <v>0.0513</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3935933642215471</v>
+        <v>-0.379440505173053</v>
       </c>
       <c r="J7" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K7" t="n">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04838596083275237</v>
+        <v>0.04483429738233868</v>
       </c>
       <c r="M7" t="n">
-        <v>9.903197679794909</v>
+        <v>9.939501445408263</v>
       </c>
       <c r="N7" t="n">
-        <v>157.5493381267167</v>
+        <v>159.1335997327134</v>
       </c>
       <c r="O7" t="n">
-        <v>12.5518659221136</v>
+        <v>12.61481667455827</v>
       </c>
       <c r="P7" t="n">
-        <v>390.9281951689322</v>
+        <v>390.771041256147</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31370,28 +31506,28 @@
         <v>0.0461</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.391754301516557</v>
+        <v>-0.3621633628204799</v>
       </c>
       <c r="J8" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K8" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="L8" t="n">
-        <v>0.04594452186318365</v>
+        <v>0.03868184712138156</v>
       </c>
       <c r="M8" t="n">
-        <v>10.23544017153865</v>
+        <v>10.33420802098399</v>
       </c>
       <c r="N8" t="n">
-        <v>164.4431634371221</v>
+        <v>169.0079485430751</v>
       </c>
       <c r="O8" t="n">
-        <v>12.82353942705064</v>
+        <v>13.00030570960064</v>
       </c>
       <c r="P8" t="n">
-        <v>392.8138681795065</v>
+        <v>392.485009092801</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31448,28 +31584,28 @@
         <v>0.0454</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.5095565715750996</v>
+        <v>-0.4823835633580391</v>
       </c>
       <c r="J9" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K9" t="n">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07498867763079153</v>
+        <v>0.06667388485104397</v>
       </c>
       <c r="M9" t="n">
-        <v>10.28376603966105</v>
+        <v>10.37329451927469</v>
       </c>
       <c r="N9" t="n">
-        <v>165.0214809638152</v>
+        <v>168.6182384232322</v>
       </c>
       <c r="O9" t="n">
-        <v>12.84606869683543</v>
+        <v>12.98530856095581</v>
       </c>
       <c r="P9" t="n">
-        <v>396.5958351176906</v>
+        <v>396.2933140865398</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31526,28 +31662,28 @@
         <v>0.0464</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5513460546336418</v>
+        <v>-0.5260695207806467</v>
       </c>
       <c r="J10" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K10" t="n">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L10" t="n">
-        <v>0.08070516282875662</v>
+        <v>0.0734759021120871</v>
       </c>
       <c r="M10" t="n">
-        <v>10.47858835308835</v>
+        <v>10.55203641600482</v>
       </c>
       <c r="N10" t="n">
-        <v>177.9706808158193</v>
+        <v>180.226933588342</v>
       </c>
       <c r="O10" t="n">
-        <v>13.34056523599429</v>
+        <v>13.42486251655271</v>
       </c>
       <c r="P10" t="n">
-        <v>394.9277173743419</v>
+        <v>394.646048972411</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31604,28 +31740,28 @@
         <v>0.0521</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.6118323230396099</v>
+        <v>-0.5988435262324244</v>
       </c>
       <c r="J11" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K11" t="n">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07708623852231156</v>
+        <v>0.07398255924102903</v>
       </c>
       <c r="M11" t="n">
-        <v>11.90782467598149</v>
+        <v>11.93573515595685</v>
       </c>
       <c r="N11" t="n">
-        <v>233.885192181894</v>
+        <v>235.04638260756</v>
       </c>
       <c r="O11" t="n">
-        <v>15.2933054694495</v>
+        <v>15.33122247596584</v>
       </c>
       <c r="P11" t="n">
-        <v>391.6626667698146</v>
+        <v>391.5201393985464</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31682,28 +31818,28 @@
         <v>0.0781</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.5169998233474191</v>
+        <v>-0.5162992309731516</v>
       </c>
       <c r="J12" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K12" t="n">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06189436429270734</v>
+        <v>0.06213473045029416</v>
       </c>
       <c r="M12" t="n">
-        <v>10.61550460605219</v>
+        <v>10.60169679492701</v>
       </c>
       <c r="N12" t="n">
-        <v>209.1560647658198</v>
+        <v>208.4520460061521</v>
       </c>
       <c r="O12" t="n">
-        <v>14.46222890033966</v>
+        <v>14.4378684717015</v>
       </c>
       <c r="P12" t="n">
-        <v>385.7065855370647</v>
+        <v>385.6989408503908</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31760,28 +31896,28 @@
         <v>0.0823</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.2181464632285141</v>
+        <v>-0.21646286935856</v>
       </c>
       <c r="J13" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K13" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01560072585384475</v>
+        <v>0.01545538050466377</v>
       </c>
       <c r="M13" t="n">
-        <v>9.385482784819322</v>
+        <v>9.380728944278353</v>
       </c>
       <c r="N13" t="n">
-        <v>156.1612274284923</v>
+        <v>155.7839152762615</v>
       </c>
       <c r="O13" t="n">
-        <v>12.49644859263992</v>
+        <v>12.48134268723768</v>
       </c>
       <c r="P13" t="n">
-        <v>382.1163083916944</v>
+        <v>382.0979478538865</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -31838,28 +31974,28 @@
         <v>0.0531</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.07445511019230618</v>
+        <v>-0.07692127457483185</v>
       </c>
       <c r="J14" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K14" t="n">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001442126440106106</v>
+        <v>0.001550774920600406</v>
       </c>
       <c r="M14" t="n">
-        <v>10.60940390842841</v>
+        <v>10.57484092161589</v>
       </c>
       <c r="N14" t="n">
-        <v>202.9198551545635</v>
+        <v>202.0543163236298</v>
       </c>
       <c r="O14" t="n">
-        <v>14.24499403841797</v>
+        <v>14.21458111671356</v>
       </c>
       <c r="P14" t="n">
-        <v>385.5513650267168</v>
+        <v>385.5783169790362</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -31916,28 +32052,28 @@
         <v>0.0436</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.02843166137554124</v>
+        <v>-0.03264768408148727</v>
       </c>
       <c r="J15" t="n">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K15" t="n">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0001930270834804571</v>
+        <v>0.0002563668067676605</v>
       </c>
       <c r="M15" t="n">
-        <v>11.51202662543631</v>
+        <v>11.47875603560344</v>
       </c>
       <c r="N15" t="n">
-        <v>216.0538504984588</v>
+        <v>215.1711438617463</v>
       </c>
       <c r="O15" t="n">
-        <v>14.69877037368973</v>
+        <v>14.6687130949428</v>
       </c>
       <c r="P15" t="n">
-        <v>391.8580793728403</v>
+        <v>391.9052307317922</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -31975,7 +32111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P502"/>
+  <dimension ref="A1:P504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68826,7 +68962,11 @@
           <t>-40.72695076069921,172.31598790399764</t>
         </is>
       </c>
-      <c r="E502" t="inlineStr"/>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>-40.726465167884236,172.3166189590312</t>
+        </is>
+      </c>
       <c r="F502" t="inlineStr">
         <is>
           <t>-40.72595504608963,172.3171863422826</t>
@@ -68837,9 +68977,21 @@
           <t>-40.7254354306031,172.31773564130825</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr"/>
-      <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="H502" t="inlineStr">
+        <is>
+          <t>-40.724894925070046,172.3182800589919</t>
+        </is>
+      </c>
+      <c r="I502" t="inlineStr">
+        <is>
+          <t>-40.72437421027967,172.31885899217886</t>
+        </is>
+      </c>
+      <c r="J502" t="inlineStr">
+        <is>
+          <t>-40.72388930566085,172.31948824262727</t>
+        </is>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>-40.72338856266409,172.32009296059368</t>
@@ -68858,6 +69010,170 @@
       <c r="N502" t="inlineStr"/>
       <c r="O502" t="inlineStr"/>
       <c r="P502" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:13:03+00:00</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>-40.72804304614348,172.31490457727674</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>-40.72737578341232,172.31526744246858</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>-40.72703558836392,172.3161131257595</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>-40.72655742345142,172.31675514618138</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>-40.7260213820387,172.31728892275507</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>-40.72547121877274,172.31779384182846</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>-40.724919661460596,172.3183204302047</t>
+        </is>
+      </c>
+      <c r="I503" t="inlineStr">
+        <is>
+          <t>-40.724401997757326,172.31890434300828</t>
+        </is>
+      </c>
+      <c r="J503" t="inlineStr">
+        <is>
+          <t>-40.72391801582681,172.31953580698016</t>
+        </is>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>-40.72337186811829,172.32006487676952</t>
+        </is>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>-40.72298105712815,172.32086288626198</t>
+        </is>
+      </c>
+      <c r="M503" t="inlineStr">
+        <is>
+          <t>-40.72240860632059,172.32135539615692</t>
+        </is>
+      </c>
+      <c r="N503" t="inlineStr">
+        <is>
+          <t>-40.72188860268098,172.32196709419236</t>
+        </is>
+      </c>
+      <c r="O503" t="inlineStr">
+        <is>
+          <t>-40.72134672580618,172.32253575993235</t>
+        </is>
+      </c>
+      <c r="P503" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:13:13+00:00</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>-40.728173164222135,172.3150966566086</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>-40.727529264886314,172.315494009406</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>-40.727095914170704,172.31620217843505</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>-40.72668783900441,172.3169476659317</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>-40.72615026138611,172.31748821996445</t>
+        </is>
+      </c>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>-40.72563787121151,172.31806486184638</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>-40.72510113447671,172.31861660622394</t>
+        </is>
+      </c>
+      <c r="I504" t="inlineStr">
+        <is>
+          <t>-40.7245579300062,172.3191588350225</t>
+        </is>
+      </c>
+      <c r="J504" t="inlineStr">
+        <is>
+          <t>-40.724014578890426,172.31969578428746</t>
+        </is>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>-40.72354513609792,172.3203563520946</t>
+        </is>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>-40.72306451655973,172.32100331831464</t>
+        </is>
+      </c>
+      <c r="M504" t="inlineStr">
+        <is>
+          <t>-40.722500439005096,172.32150991720857</t>
+        </is>
+      </c>
+      <c r="N504" t="inlineStr">
+        <is>
+          <t>-40.72189872342488,172.32198235792427</t>
+        </is>
+      </c>
+      <c r="O504" t="inlineStr">
+        <is>
+          <t>-40.72137780211108,172.32257779146602</t>
+        </is>
+      </c>
+      <c r="P504" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0317/nzd0317.xlsx
+++ b/data/nzd0317/nzd0317.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P504"/>
+  <dimension ref="A1:P505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25546,6 +25546,60 @@
         </is>
       </c>
     </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:13:14+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>408.6466666666667</v>
+      </c>
+      <c r="C505" t="n">
+        <v>417.5</v>
+      </c>
+      <c r="D505" t="n">
+        <v>397.32</v>
+      </c>
+      <c r="E505" t="n">
+        <v>387.82</v>
+      </c>
+      <c r="F505" t="n">
+        <v>386.29</v>
+      </c>
+      <c r="G505" t="n">
+        <v>385.93</v>
+      </c>
+      <c r="H505" t="n">
+        <v>393.8922222222222</v>
+      </c>
+      <c r="I505" t="n">
+        <v>388.8522222222222</v>
+      </c>
+      <c r="J505" t="n">
+        <v>384.2922222222222</v>
+      </c>
+      <c r="K505" t="n">
+        <v>375.13</v>
+      </c>
+      <c r="L505" t="n">
+        <v>365.9471428571428</v>
+      </c>
+      <c r="M505" t="n">
+        <v>378.2633333333333</v>
+      </c>
+      <c r="N505" t="n">
+        <v>381.19</v>
+      </c>
+      <c r="O505" t="n">
+        <v>376.38</v>
+      </c>
+      <c r="P505" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -25557,7 +25611,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B530"/>
+  <dimension ref="A1:B531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30865,6 +30919,16 @@
       </c>
       <c r="B530" t="n">
         <v>0.65</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>-0.08</v>
       </c>
     </row>
   </sheetData>
@@ -32111,7 +32175,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P504"/>
+  <dimension ref="A1:P505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -69179,6 +69243,88 @@
         </is>
       </c>
     </row>
+    <row r="505">
+      <c r="A505" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-26 22:13:14+00:00</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>-40.72804560218,172.31490835046694</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>-40.72748211820406,172.3154244120352</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>-40.727092559410664,172.31619722614698</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>-40.72663901558016,172.31687559253328</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>-40.72614320191054,172.31747730325716</t>
+        </is>
+      </c>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>-40.72562065671764,172.31803686651162</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>-40.725043964750476,172.31852330112582</t>
+        </is>
+      </c>
+      <c r="I505" t="inlineStr">
+        <is>
+          <t>-40.72454031333758,172.31913008331847</t>
+        </is>
+      </c>
+      <c r="J505" t="inlineStr">
+        <is>
+          <t>-40.72403564332029,172.31973068211755</t>
+        </is>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>-40.72354990594876,172.32036437608465</t>
+        </is>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>-40.72306245681312,172.32099985249798</t>
+        </is>
+      </c>
+      <c r="M505" t="inlineStr">
+        <is>
+          <t>-40.72245576117271,172.3214347405487</t>
+        </is>
+      </c>
+      <c r="N505" t="inlineStr">
+        <is>
+          <t>-40.72188996395073,172.32196914720865</t>
+        </is>
+      </c>
+      <c r="O505" t="inlineStr">
+        <is>
+          <t>-40.72142375734629,172.32263994726028</t>
+        </is>
+      </c>
+      <c r="P505" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0317/nzd0317.xlsx
+++ b/data/nzd0317/nzd0317.xlsx
@@ -31102,28 +31102,28 @@
         <v>0.0646</v>
       </c>
       <c r="I2" t="n">
-        <v>1.027424135062195</v>
+        <v>1.018613982630263</v>
       </c>
       <c r="J2" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K2" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1129487860825786</v>
+        <v>0.1115131712337591</v>
       </c>
       <c r="M2" t="n">
-        <v>15.99962992522522</v>
+        <v>15.98942534197055</v>
       </c>
       <c r="N2" t="n">
-        <v>454.7448644249274</v>
+        <v>454.3966513076089</v>
       </c>
       <c r="O2" t="n">
-        <v>21.32474769897471</v>
+        <v>21.3165816046478</v>
       </c>
       <c r="P2" t="n">
-        <v>399.9947973433315</v>
+        <v>400.0888980791769</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -31180,28 +31180,28 @@
         <v>0.0536</v>
       </c>
       <c r="I3" t="n">
-        <v>1.213774560283631</v>
+        <v>1.217037229513483</v>
       </c>
       <c r="J3" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K3" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1568918990187431</v>
+        <v>0.158130232432507</v>
       </c>
       <c r="M3" t="n">
-        <v>15.89226298966538</v>
+        <v>15.87446383895644</v>
       </c>
       <c r="N3" t="n">
-        <v>411.4992820623504</v>
+        <v>410.6023922867579</v>
       </c>
       <c r="O3" t="n">
-        <v>20.28544507922738</v>
+        <v>20.26332628880949</v>
       </c>
       <c r="P3" t="n">
-        <v>378.6123006809233</v>
+        <v>378.5759711088725</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -31258,28 +31258,28 @@
         <v>0.0554</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1621292945724573</v>
+        <v>0.1650576772523913</v>
       </c>
       <c r="J4" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K4" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L4" t="n">
-        <v>0.007300379443826444</v>
+        <v>0.007591436035210841</v>
       </c>
       <c r="M4" t="n">
-        <v>10.64358662223391</v>
+        <v>10.63743062962464</v>
       </c>
       <c r="N4" t="n">
-        <v>189.2099508829797</v>
+        <v>188.8630221144995</v>
       </c>
       <c r="O4" t="n">
-        <v>13.75536080526351</v>
+        <v>13.74274434436221</v>
       </c>
       <c r="P4" t="n">
-        <v>386.3428453579173</v>
+        <v>386.3106818934893</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -31336,28 +31336,28 @@
         <v>0.054</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.2713829865759491</v>
+        <v>-0.2697525981694547</v>
       </c>
       <c r="J5" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K5" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L5" t="n">
-        <v>0.02511818401640997</v>
+        <v>0.0249184571111013</v>
       </c>
       <c r="M5" t="n">
-        <v>9.39916156377441</v>
+        <v>9.387151911294346</v>
       </c>
       <c r="N5" t="n">
-        <v>150.1720693797331</v>
+        <v>149.8503340572083</v>
       </c>
       <c r="O5" t="n">
-        <v>12.25447140352178</v>
+        <v>12.24133710250675</v>
       </c>
       <c r="P5" t="n">
-        <v>391.0923765175631</v>
+        <v>391.0743738260535</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -31414,28 +31414,28 @@
         <v>0.0523</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.428844660066026</v>
+        <v>-0.4268028722479054</v>
       </c>
       <c r="J6" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K6" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L6" t="n">
-        <v>0.05728331999403757</v>
+        <v>0.05696876454535194</v>
       </c>
       <c r="M6" t="n">
-        <v>9.799606485692379</v>
+        <v>9.789418094955069</v>
       </c>
       <c r="N6" t="n">
-        <v>157.0987770142124</v>
+        <v>156.7877441134112</v>
       </c>
       <c r="O6" t="n">
-        <v>12.53390509834076</v>
+        <v>12.52149128951545</v>
       </c>
       <c r="P6" t="n">
-        <v>392.6612599283742</v>
+        <v>392.6385709445004</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -31492,28 +31492,28 @@
         <v>0.0513</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.379440505173053</v>
+        <v>-0.3773203121054517</v>
       </c>
       <c r="J7" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K7" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="L7" t="n">
-        <v>0.04483429738233868</v>
+        <v>0.04450934963616704</v>
       </c>
       <c r="M7" t="n">
-        <v>9.939501445408263</v>
+        <v>9.928683780106626</v>
       </c>
       <c r="N7" t="n">
-        <v>159.1335997327134</v>
+        <v>158.8240647936869</v>
       </c>
       <c r="O7" t="n">
-        <v>12.61481667455827</v>
+        <v>12.60254199729907</v>
       </c>
       <c r="P7" t="n">
-        <v>390.771041256147</v>
+        <v>390.7473946714267</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -31570,28 +31570,28 @@
         <v>0.0461</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.3621633628204799</v>
+        <v>-0.3576923446278732</v>
       </c>
       <c r="J8" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K8" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L8" t="n">
-        <v>0.03868184712138156</v>
+        <v>0.03785232125041404</v>
       </c>
       <c r="M8" t="n">
-        <v>10.33420802098399</v>
+        <v>10.33643512916755</v>
       </c>
       <c r="N8" t="n">
-        <v>169.0079485430751</v>
+        <v>168.8897078001071</v>
       </c>
       <c r="O8" t="n">
-        <v>13.00030570960064</v>
+        <v>12.99575729998476</v>
       </c>
       <c r="P8" t="n">
-        <v>392.485009092801</v>
+        <v>392.4350880142902</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -31648,28 +31648,28 @@
         <v>0.0454</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.4823835633580391</v>
+        <v>-0.4803006110378297</v>
       </c>
       <c r="J9" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K9" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06667388485104397</v>
+        <v>0.06635130358606267</v>
       </c>
       <c r="M9" t="n">
-        <v>10.37329451927469</v>
+        <v>10.36208130401752</v>
       </c>
       <c r="N9" t="n">
-        <v>168.6182384232322</v>
+        <v>168.2991067394485</v>
       </c>
       <c r="O9" t="n">
-        <v>12.98530856095581</v>
+        <v>12.97301455866941</v>
       </c>
       <c r="P9" t="n">
-        <v>396.2933140865398</v>
+        <v>396.2700172398485</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -31726,28 +31726,28 @@
         <v>0.0464</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.5260695207806467</v>
+        <v>-0.5246932391634965</v>
       </c>
       <c r="J10" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K10" t="n">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0734759021120871</v>
+        <v>0.0733716416723168</v>
       </c>
       <c r="M10" t="n">
-        <v>10.55203641600482</v>
+        <v>10.53605807158882</v>
       </c>
       <c r="N10" t="n">
-        <v>180.226933588342</v>
+        <v>179.8464302471019</v>
       </c>
       <c r="O10" t="n">
-        <v>13.42486251655271</v>
+        <v>13.41068343698791</v>
       </c>
       <c r="P10" t="n">
-        <v>394.646048972411</v>
+        <v>394.6306467344968</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -31804,28 +31804,28 @@
         <v>0.0521</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.5988435262324244</v>
+        <v>-0.5991588667886661</v>
       </c>
       <c r="J11" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K11" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07398255924102903</v>
+        <v>0.0743259940966311</v>
       </c>
       <c r="M11" t="n">
-        <v>11.93573515595685</v>
+        <v>11.91043753062562</v>
       </c>
       <c r="N11" t="n">
-        <v>235.04638260756</v>
+        <v>234.5206890073253</v>
       </c>
       <c r="O11" t="n">
-        <v>15.33122247596584</v>
+        <v>15.31406833624969</v>
       </c>
       <c r="P11" t="n">
-        <v>391.5201393985464</v>
+        <v>391.523615333944</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -31882,28 +31882,28 @@
         <v>0.0781</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.5162992309731516</v>
+        <v>-0.5189610706137076</v>
       </c>
       <c r="J12" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K12" t="n">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L12" t="n">
-        <v>0.06213473045029416</v>
+        <v>0.06294965381060713</v>
       </c>
       <c r="M12" t="n">
-        <v>10.60169679492701</v>
+        <v>10.58949573837849</v>
       </c>
       <c r="N12" t="n">
-        <v>208.4520460061521</v>
+        <v>208.0612372528125</v>
       </c>
       <c r="O12" t="n">
-        <v>14.4378684717015</v>
+        <v>14.42432796537893</v>
       </c>
       <c r="P12" t="n">
-        <v>385.6989408503908</v>
+        <v>385.7285269454356</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -31960,28 +31960,28 @@
         <v>0.0823</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.21646286935856</v>
+        <v>-0.2157084924818123</v>
       </c>
       <c r="J13" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K13" t="n">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01545538050466377</v>
+        <v>0.0154099640069062</v>
       </c>
       <c r="M13" t="n">
-        <v>9.380728944278353</v>
+        <v>9.363776023723529</v>
       </c>
       <c r="N13" t="n">
-        <v>155.7839152762615</v>
+        <v>155.4403998308599</v>
       </c>
       <c r="O13" t="n">
-        <v>12.48134268723768</v>
+        <v>12.46757393524738</v>
       </c>
       <c r="P13" t="n">
-        <v>382.0979478538865</v>
+        <v>382.0896407529599</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -32038,28 +32038,28 @@
         <v>0.0531</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.07692127457483185</v>
+        <v>-0.07788342534687548</v>
       </c>
       <c r="J14" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K14" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001550774920600406</v>
+        <v>0.001595839804299781</v>
       </c>
       <c r="M14" t="n">
-        <v>10.57484092161589</v>
+        <v>10.55622290707491</v>
       </c>
       <c r="N14" t="n">
-        <v>202.0543163236298</v>
+        <v>201.6149061373775</v>
       </c>
       <c r="O14" t="n">
-        <v>14.21458111671356</v>
+        <v>14.1991163857959</v>
       </c>
       <c r="P14" t="n">
-        <v>385.5783169790362</v>
+        <v>385.5888573028548</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -32116,28 +32116,28 @@
         <v>0.0436</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.03264768408148727</v>
+        <v>-0.03889149577032593</v>
       </c>
       <c r="J15" t="n">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="K15" t="n">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002563668067676605</v>
+        <v>0.0003643535438402346</v>
       </c>
       <c r="M15" t="n">
-        <v>11.47875603560344</v>
+        <v>11.48349358919266</v>
       </c>
       <c r="N15" t="n">
-        <v>215.1711438617463</v>
+        <v>215.1682514945633</v>
       </c>
       <c r="O15" t="n">
-        <v>14.6687130949428</v>
+        <v>14.66861450494092</v>
       </c>
       <c r="P15" t="n">
-        <v>391.9052307317922</v>
+        <v>391.9752033392192</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">

--- a/data/nzd0317/nzd0317.xlsx
+++ b/data/nzd0317/nzd0317.xlsx
@@ -31093,13 +31093,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06</v>
+        <v>0.025</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0527</v>
+        <v>0.0248</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0646</v>
+        <v>0.0304</v>
       </c>
       <c r="I2" t="n">
         <v>1.018645278731985</v>
@@ -31171,13 +31171,13 @@
         <v>0.9230192543007724</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0487</v>
+        <v>0.0389</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0536</v>
+        <v>0.0431</v>
       </c>
       <c r="I3" t="n">
         <v>1.217037229513483</v>
@@ -31249,13 +31249,13 @@
         <v>0.8460385086015446</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0493</v>
+        <v>0.0607</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0554</v>
+        <v>0.07580000000000001</v>
       </c>
       <c r="I4" t="n">
         <v>0.1650576772523913</v>
@@ -31327,13 +31327,13 @@
         <v>0.7690577629042143</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0491</v>
+        <v>0.0679</v>
       </c>
       <c r="H5" t="n">
-        <v>0.054</v>
+        <v>0.0914</v>
       </c>
       <c r="I5" t="n">
         <v>-0.2697525981694547</v>
@@ -31405,13 +31405,13 @@
         <v>0.6920770172060617</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0486</v>
+        <v>0.0678</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0523</v>
+        <v>0.08210000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>-0.4268028722479053</v>
@@ -31483,13 +31483,13 @@
         <v>0.6151024439964371</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0484</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0513</v>
+        <v>0.0819</v>
       </c>
       <c r="I7" t="n">
         <v>-0.3773203121054517</v>
@@ -31561,13 +31561,13 @@
         <v>0.5381216982981015</v>
       </c>
       <c r="F8" t="n">
-        <v>0.045</v>
+        <v>0.065</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0441</v>
+        <v>0.0595</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0461</v>
+        <v>0.0745</v>
       </c>
       <c r="I8" t="n">
         <v>-0.3576840130299309</v>
@@ -31639,13 +31639,13 @@
         <v>0.4611409526015547</v>
       </c>
       <c r="F9" t="n">
-        <v>0.045</v>
+        <v>0.075</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04</v>
+        <v>0.06469999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0454</v>
+        <v>0.0854</v>
       </c>
       <c r="I9" t="n">
         <v>-0.4802877918191458</v>
@@ -31717,13 +31717,13 @@
         <v>0.3841602069019909</v>
       </c>
       <c r="F10" t="n">
-        <v>0.045</v>
+        <v>0.075</v>
       </c>
       <c r="G10" t="n">
-        <v>0.044</v>
+        <v>0.0669</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0464</v>
+        <v>0.0882</v>
       </c>
       <c r="I10" t="n">
         <v>-0.5246786076056029</v>
@@ -31795,13 +31795,13 @@
         <v>0.3071795928464479</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0444</v>
+        <v>0.0598</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0521</v>
+        <v>0.0767</v>
       </c>
       <c r="I11" t="n">
         <v>-0.5991588667886661</v>
@@ -31873,13 +31873,13 @@
         <v>0.2301988471482912</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06419999999999999</v>
+        <v>0.0721</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0781</v>
+        <v>0.0858</v>
       </c>
       <c r="I12" t="n">
         <v>-0.5189292917064741</v>
@@ -31951,13 +31951,13 @@
         <v>0.1532181014495676</v>
       </c>
       <c r="F13" t="n">
-        <v>0.075</v>
+        <v>0.09</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06859999999999999</v>
+        <v>0.08409999999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0823</v>
+        <v>0.1027</v>
       </c>
       <c r="I13" t="n">
         <v>-0.2157334036615953</v>
@@ -32029,13 +32029,13 @@
         <v>0.07623735575084394</v>
       </c>
       <c r="F14" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G14" t="n">
-        <v>0.045</v>
+        <v>0.0512</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0531</v>
+        <v>0.0586</v>
       </c>
       <c r="I14" t="n">
         <v>-0.07788342534687548</v>
@@ -32110,10 +32110,10 @@
         <v>0.04</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0384</v>
+        <v>0.0396</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0436</v>
+        <v>0.0413</v>
       </c>
       <c r="I15" t="n">
         <v>-0.03889149577032593</v>
